--- a/output/resultadosAmazon.xlsx
+++ b/output/resultadosAmazon.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D352"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,161 +418,161 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Amazon Kindle 16 GB (modelo más reciente): El Kindle más ligero y compacto, ahora con cambios de página más rápidos y mayor contraste, para una experiencia de lectura mejorada - Negro</v>
+        <v>Apple iPhone 16 (128 GB) - Negro</v>
       </c>
       <c r="B2" t="str">
-        <v>1,779.00</v>
+        <v>19,999.00</v>
       </c>
       <c r="C2" t="str">
-        <v>$2,099.00</v>
+        <v>$2,029.89</v>
       </c>
       <c r="D2" t="str">
-        <v>https://m.media-amazon.com/images/I/71w-4uiDzoL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/41qsyx+-ffL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Amazon Kindle Paperwhite 16GB (modelo más reciente): nuestro Kindle más rápido de la historia, con una nueva pantalla de 7″ sin reflejos y una batería de semanas de duración. Color Negro</v>
+        <v>Apple iPhone 16, 128GB, Ultramarino (Reacondicionado)</v>
       </c>
       <c r="B3" t="str">
-        <v>2,399.00</v>
+        <v>16,726.83</v>
       </c>
       <c r="C3" t="str">
-        <v>$2,999.00</v>
+        <v>$18,551.51</v>
       </c>
       <c r="D3" t="str">
-        <v>https://m.media-amazon.com/images/I/51WeXuqsZyL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71Ecl1RS5jL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>El nuevo Amazon Kindle Paperwhite Signature Edition (32 GB): nuestro Kindle más rápido con una luz frontal que se ajusta automáticamente y semanas de duración de la batería. Carbón metálico</v>
+        <v>Apple iPhone 16 Pro, 128GB, Titanio del Desierto (Reacondicionado)</v>
       </c>
       <c r="B4" t="str">
-        <v>2,999.00</v>
+        <v>N/A</v>
       </c>
       <c r="C4" t="str">
-        <v>$3,799.00</v>
+        <v>N/A</v>
       </c>
       <c r="D4" t="str">
-        <v>https://m.media-amazon.com/images/I/718meV11rIL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Totalmente nuevo, Made for Amazon, base de carga inalámbrica para Kindle Paperwhite Signature Editions (versiones de 2022 y 2024)</v>
+        <v>Apple iPhone 16 Pro (128 GB) - Titanio Natural</v>
       </c>
       <c r="B5" t="str">
-        <v>779.99</v>
+        <v>23,399.10</v>
       </c>
       <c r="C5" t="str">
-        <v>$79.16</v>
+        <v>$25,999.00</v>
       </c>
       <c r="D5" t="str">
-        <v>https://m.media-amazon.com/images/I/81S-GuPuGxL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/415ZLHwajeL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Paquete Kindle que incluye Kindle (lanzamiento 2024) - Matcha y Funda de Tela - Matcha</v>
+        <v>Apple iPhone 15 Plus (128 GB) - Negro (Reacondicionado)</v>
       </c>
       <c r="B6" t="str">
-        <v>2,378.99</v>
+        <v>12,199.00</v>
       </c>
       <c r="C6" t="str">
-        <v>$2,698.99</v>
+        <v>$17,999.10</v>
       </c>
       <c r="D6" t="str">
-        <v>https://m.media-amazon.com/images/I/61xlk5g41xL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51nHt+jXdjL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>PUBAMALL Funda Compatible para 6 Pulgadas Kindle All-New (11ª Generación - Lanzamiento 2024/2022), con la función Auto Sleep Wake (Cielo Estrellado)</v>
+        <v>Apple iPhone 16 Plus (128 GB) - Blanco</v>
       </c>
       <c r="B7" t="str">
-        <v>206.10</v>
+        <v>22,999.00</v>
       </c>
       <c r="C7" t="str">
-        <v>$239.00</v>
+        <v>$2,334.39</v>
       </c>
       <c r="D7" t="str">
-        <v>https://m.media-amazon.com/images/I/91ckIYf2nbL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/41lW86VvPgL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Funda Amazon Kindle, funda protectora plegable fina y ligera - Tela</v>
+        <v>Apple iPhone 13, 128GB, Azul - (Reacondicionado)</v>
       </c>
       <c r="B8" t="str">
-        <v>599.99</v>
+        <v>6,523.79</v>
       </c>
       <c r="C8" t="str">
-        <v>$60.89</v>
+        <v>$7,969.55</v>
       </c>
       <c r="D8" t="str">
-        <v>https://m.media-amazon.com/images/I/711+7nOVHnL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/518rwCXZ0SL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Janety Funda para Kindle 2024/2022, 6 Pulgadas, 2 Piezas TPU Transparente, Protección Antigolpes Lectores de Ebooks, Funda para Kindle 11ª Generación</v>
+        <v>Apple iPhone 16 Pro MAX (256 GB) - Titanio Blanco</v>
       </c>
       <c r="B9" t="str">
-        <v>339.00</v>
+        <v>27,899.10</v>
       </c>
       <c r="C9" t="str">
-        <v>$34.40</v>
+        <v>$30,999.00</v>
       </c>
       <c r="D9" t="str">
-        <v>https://m.media-amazon.com/images/I/61etpfGHVDL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/417rPyk-0iL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Presentamos la nueva funda de cuero de origen vegetal de Amazon: funda protectora ligera diseñada pensando en la sustentabilidad para los nuevos Kindle Paperwhite y Kindle Paperwhite Signature Edition</v>
+        <v>Apple iPhone 15 (128 GB) - Negro (Reacondicionado)</v>
       </c>
       <c r="B10" t="str">
-        <v>799.99</v>
+        <v>13,749.00</v>
       </c>
       <c r="C10" t="str">
-        <v>$81.19</v>
+        <v>$15,749.10</v>
       </c>
       <c r="D10" t="str">
-        <v>https://m.media-amazon.com/images/I/819LuzDf5OL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/416MG51rNgL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>PUBAMALL Funda para Kindle Paperwhite 7 Pulgadas, 12ª Generación 2024, Auto Sleep Wake, Compatible con Kindle Colorsoft Signature Edition (Negro)</v>
+        <v>Apple iPhone 16 Plus, 128GB, Negro (Reacondicionado)</v>
       </c>
       <c r="B11" t="str">
-        <v>269.10</v>
+        <v>N/A</v>
       </c>
       <c r="C11" t="str">
-        <v>$299.00</v>
+        <v>N/A</v>
       </c>
       <c r="D11" t="str">
-        <v>https://m.media-amazon.com/images/I/61ZuY6pVGgL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Nueva funda para Amazon Kindle Paperwhite y Kindle Paperwhite Signature Edition, funda protectora ligera y plegable, cuero prémium</v>
+        <v>Apple iPhone 15 Pro (128 GB) - Titanio Natural (Reacondicionado)</v>
       </c>
       <c r="B12" t="str">
-        <v>1,199.99</v>
+        <v>N/A</v>
       </c>
       <c r="C12" t="str">
-        <v>$121.79</v>
+        <v>N/A</v>
       </c>
       <c r="D12" t="str">
-        <v>https://m.media-amazon.com/images/I/81eT7nsvm8L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>El Hombre</v>
+        <v>Apple iPhone 13 Mini, 128GB, Medianoche (Reacondicionado)</v>
       </c>
       <c r="B13" t="str">
         <v>N/A</v>
@@ -586,189 +586,189 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Nueva funda para Amazon Kindle Paperwhite y Kindle Paperwhite Signature Edition, ligera y resistente al agua, funda protectora plegable, tela</v>
+        <v>Apple iPhone 15 (128 GB) - Negro</v>
       </c>
       <c r="B14" t="str">
-        <v>679.99</v>
+        <v>15,749.10</v>
       </c>
       <c r="C14" t="str">
-        <v>$69.01</v>
+        <v>$17,499.00</v>
       </c>
       <c r="D14" t="str">
-        <v>https://m.media-amazon.com/images/I/91KwBwyXicL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/416MG51rNgL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>IOPDXZW Page Turner con Control Remoto RF, Tiktok Ring, EReaders Accesorios de Lectura, Compatible Kindle, Kindle Paperwhite, Kobo, Ebook Readers</v>
+        <v>iPhone 16e 128 GB: Diseñado para Apple Intelligence, Chip A18, superbatería, cámara Fusion de 48 MP, Pantalla Super Retina XDR de 6.1 Pulgadas, Blanco</v>
       </c>
       <c r="B15" t="str">
-        <v>299.00</v>
+        <v>14,999.00</v>
       </c>
       <c r="C15" t="str">
-        <v>$388.00</v>
+        <v>$1,522.39</v>
       </c>
       <c r="D15" t="str">
-        <v>https://m.media-amazon.com/images/I/61J00nTk4QL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/41V13W552HL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Cadáver exquisito (Mapa de las lenguas)</v>
+        <v>Apple iPhone 14, 128GB, Blanco Estelar (Reacondicionado)</v>
       </c>
       <c r="B16" t="str">
-        <v>N/A</v>
+        <v>7,669.71</v>
       </c>
       <c r="C16" t="str">
-        <v>N/A</v>
+        <v>$8,469.85</v>
       </c>
       <c r="D16" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/618Bb+QzCmL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Lo que un líder no debe delegar: Crea una empresa admirada</v>
+        <v>JETech Funda Magnética para iPhone 16 6.1 Pulgadas Compatible con MagSafe, Carcasa Respaldo Translúcida Mate Slim Antigolpes (Negro)</v>
       </c>
       <c r="B17" t="str">
-        <v>N/A</v>
+        <v>329.00</v>
       </c>
       <c r="C17" t="str">
-        <v>N/A</v>
+        <v>$33.39</v>
       </c>
       <c r="D17" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61KVucB2flL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Fintie - Funda de piel sintética para Kindle Paperwhite con ranura para tarjetas y correa de mano para Kindle Paperwhite (café clásico)</v>
+        <v>iPhone 14 Plus 128 GB Azul</v>
       </c>
       <c r="B18" t="str">
-        <v>399.00</v>
+        <v>17,498.99</v>
       </c>
       <c r="C18" t="str">
-        <v>$40.49</v>
+        <v>$1,458.35</v>
       </c>
       <c r="D18" t="str">
-        <v>https://m.media-amazon.com/images/I/71Ssf3aHi7L._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61BGE6iu4AL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kit Funda Y 2 Protectores de Pantalla para Kindle Paperwhite de 7 Pulgadas, 12.ª Generación, Versión 2024, Compatible con Kindle Colorsoft Signature Edition,con Función Encendido y Apagado Automático</v>
+        <v>Apple iPhone 13 Pro, 128GB, Verde Alpino - (Reacondicionado)</v>
       </c>
       <c r="B19" t="str">
-        <v>260.10</v>
+        <v>N/A</v>
       </c>
       <c r="C19" t="str">
-        <v>$289.00</v>
+        <v>N/A</v>
       </c>
       <c r="D19" t="str">
-        <v>https://m.media-amazon.com/images/I/61OQSoi3QkL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>ZCGOINGTECH Funda para Kindle Paperwhite de 7 Pulgadas, 12.ª Generación, Versión 2024, Compatible con Kindle Colorsoft Signature Edition, Funda Kindle con Función de Encendido y Apagado Automático</v>
+        <v>Apple iPhone 15 Pro, 128GB, Titanio Natural - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B20" t="str">
-        <v>259.00</v>
+        <v>N/A</v>
       </c>
       <c r="C20" t="str">
-        <v>$26.28</v>
+        <v>N/A</v>
       </c>
       <c r="D20" t="str">
-        <v>https://m.media-amazon.com/images/I/81pJ41QFgWL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>RSAquar Funda Compatible con 7" Nuevo Kindle Paperwhite (12ª Generación 2024) &amp; Kindle Colorsoft Signature Edition, Funda Protectora Delgada con Auto Sleep/Wake - Agave Verde</v>
+        <v>JETech Funda Magnética para iPhone 16 6.1 Pulgadas Compatible con MagSafe, Carcasa Antigolpes, Anti-Arañazos Respaldo Transparente (Transparente)</v>
       </c>
       <c r="B21" t="str">
-        <v>359.00</v>
+        <v>289.00</v>
       </c>
       <c r="C21" t="str">
-        <v>$399.00</v>
+        <v>$29.33</v>
       </c>
       <c r="D21" t="str">
-        <v>https://m.media-amazon.com/images/I/71LYFEZXsiL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71jM-hiG1FL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Amazon Kindle 16 GB (modelo más reciente): El Kindle más ligero y compacto, ahora con cambios de página más rápidos y mayor contraste, para una experiencia de lectura mejorada - Negro</v>
+        <v>JETech Funda Silicona Magnética para iPhone 16 6.1 Pulgadas, Compatible con MagSafe, Tacto Suave Sedoso, Carcasa con Protección Lente Cámara Completa (Azul Verde)</v>
       </c>
       <c r="B22" t="str">
-        <v>1,779.00</v>
+        <v>299.00</v>
       </c>
       <c r="C22" t="str">
-        <v>$2,099.00</v>
+        <v>$30.34</v>
       </c>
       <c r="D22" t="str">
-        <v>https://m.media-amazon.com/images/I/71w-4uiDzoL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61eeDZ7o1wL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>El nuevo Amazon Kindle Paperwhite Signature Edition (32 GB): nuestro Kindle más rápido con una luz frontal que se ajusta automáticamente y semanas de duración de la batería. Carbón metálico</v>
+        <v>MOFIT Mini Power Bank Salida Tipo C Carga Rápida PD 20W Integrado Batería Portátil Banco de Energía 5000 mAh Compatible con los Celulares iPhone 16/15 Pro MAX Samsung Xiaomi Google,¡Idea de Regalo</v>
       </c>
       <c r="B23" t="str">
-        <v>2,999.00</v>
+        <v>N/A</v>
       </c>
       <c r="C23" t="str">
-        <v>$3,799.00</v>
+        <v>N/A</v>
       </c>
       <c r="D23" t="str">
-        <v>https://m.media-amazon.com/images/I/718meV11rIL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Dedo pela pollos</v>
+        <v>JETech Funda Mate para iPhone 16 6.1 Pulgadas, Antigolpes Protección contra Caídas Grado Militar, Carcasa Trasera Translúcida Esmerilada, Antihuellas (Negro)</v>
       </c>
       <c r="B24" t="str">
-        <v>7,100.00</v>
+        <v>233.10</v>
       </c>
       <c r="C24" t="str">
-        <v>$720.65</v>
+        <v>$259.00</v>
       </c>
       <c r="D24" t="str">
-        <v>https://m.media-amazon.com/images/I/31CS0vPnOjL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61Jhm0ptwyL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Lamicall Soporte para Tablet de Brazo Flexible - Soporte iPad con Cuello de Cisne para iPad Pro 10.5 10.2 9.7, iPad Mini, iPad Air, Switch, Kindle, Samsung Tabs, Otras 4-11 Pulgadas Tablets, Negro</v>
+        <v>JETech Funda Suave Claro para iPhone 16 6.1 Pulgadas, Protección Completa Lente Cámara, Compatible con MagSafe Carga Inalámbrica, Carcasa TPU Galvanizada Antigolpes (Negro)</v>
       </c>
       <c r="B25" t="str">
-        <v>529.00</v>
+        <v>249.00</v>
       </c>
       <c r="C25" t="str">
-        <v>$599.00</v>
+        <v>$25.27</v>
       </c>
       <c r="D25" t="str">
-        <v>https://m.media-amazon.com/images/I/61qyKhv2aGS._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61YwjoZJvYL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>1984</v>
+        <v>JETech Protector de Pantalla para iPhone 16 6.1 Pulgadas, Mica Cristal Vidrio Templado con Marco de Instalación Fácil, Amigable para Funda, HD Transparente, 3 Unidades</v>
       </c>
       <c r="B26" t="str">
-        <v>N/A</v>
+        <v>219.00</v>
       </c>
       <c r="C26" t="str">
-        <v>N/A</v>
+        <v>$249.00</v>
       </c>
       <c r="D26" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71041qvQIXL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Amazon Kindle Paperwhite Signature Edition (32 GB) – Con luz frontal autorregulable, carga inalámbrica, pantalla de 6.8 pulgadas y hasta 10 semanas de duración de la batería – Negro</v>
+        <v>Apple iPhone 14 Pro 128 GB Color Oro (Reacondicionado)</v>
       </c>
       <c r="B27" t="str">
         <v>N/A</v>
@@ -782,77 +782,77 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>COCFOOKIW Funda para 6" Kindle 11ª Generación 2022/2024, Modelo: RS23CV/C2V2L3，Cáscara Blanda Transparente Blanda Estuche con Función de Reposo/Activación Automática (5)</v>
+        <v>JETech 5 en 1 Funda Mate para iPhone 16 6.1 Pulgadas con 2 Protectores Pantalla Mica Cristal Vidrio Templado y 2 Protectores Lente Cámara, Carcasa Translúcida Respaldo (Negro)</v>
       </c>
       <c r="B28" t="str">
-        <v>292.00</v>
+        <v>319.00</v>
       </c>
       <c r="C28" t="str">
-        <v>$29.63</v>
+        <v>$32.37</v>
       </c>
       <c r="D28" t="str">
-        <v>https://m.media-amazon.com/images/I/61BaDZPw-UL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61XKJBW+1bL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>HGGWZWIF 2pcs Funda para Kindle Paperwhite 12ª Generación 2024 (7 Pulgadas) &amp; Kindle Colorsoft Signature Edition ((7 Pulgadas), Paquete de 2 Transparente Case +Pegatinas de Lectura</v>
+        <v>Apple iPhone 13 Pro MAX, 128GB, Azul Alpino - (Reacondicionado)</v>
       </c>
       <c r="B29" t="str">
-        <v>299.00</v>
+        <v>N/A</v>
       </c>
       <c r="C29" t="str">
-        <v>$30.34</v>
+        <v>N/A</v>
       </c>
       <c r="D29" t="str">
-        <v>https://m.media-amazon.com/images/I/71deu0oH5JL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>RSAquar Funda Transparente para 7" Nuevo Kindle Paperwhite (12ª Generación 2024) &amp; Kindle Colorsoft Signature Edition - Funda Trasera de Silicona Resistente a los Arañazos y Ligera (Transparente)</v>
+        <v>Apple iPhone 14 Plus, 128GB, Amarillo, Reacondicionado</v>
       </c>
       <c r="B30" t="str">
-        <v>299.00</v>
+        <v>N/A</v>
       </c>
       <c r="C30" t="str">
-        <v>$349.00</v>
+        <v>N/A</v>
       </c>
       <c r="D30" t="str">
-        <v>https://m.media-amazon.com/images/I/71+YO84zcrL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>JUNJIU Funda Plegable para Nuevo Kindle (Versión 11.ª Generación 2022), con Encendido/Apagado Automático, Funda Ligera con Correa de Mano,Flor de Albaricoque</v>
+        <v>Apple iPhone 15 Pro MAX, 256 GB, Titanio Azul, Desbloqueado (Renovado) Titanio Azul 256 GB</v>
       </c>
       <c r="B31" t="str">
-        <v>439.00</v>
+        <v>19,680.19</v>
       </c>
       <c r="C31" t="str">
-        <v>$44.55</v>
+        <v>$1,640.01</v>
       </c>
       <c r="D31" t="str">
-        <v>https://m.media-amazon.com/images/I/81NtP8w8dzL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61+K3MDUXkL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>No te creas todo lo que piensas: El sufrimiento empieza y termina en tu cabeza</v>
+        <v>Apple iPhone 12 Mini, 128GB, Negro - Desbloqueado (Reacondicionado)</v>
       </c>
       <c r="B32" t="str">
-        <v>N/A</v>
+        <v>4,824.06</v>
       </c>
       <c r="C32" t="str">
-        <v>N/A</v>
+        <v>$5,896.16</v>
       </c>
       <c r="D32" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61ZsnKeXmJL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Antes de que se enfríe el café</v>
+        <v>Apple iPhone 14 Pro MAX 128 GB Morado Oscuro (Reacondicionado)</v>
       </c>
       <c r="B33" t="str">
         <v>N/A</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>El sutil arte de que te importe un caraj* - Segunda Edición: Un enfoque disruptivo para vivir una buena vida</v>
+        <v>SAMSUNG Celular Galaxy A16 Gris 128GB</v>
       </c>
       <c r="B34" t="str">
         <v>N/A</v>
@@ -880,63 +880,63 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>ZCGOINGTECH Paquete de 2 Mica Protectores de Pantalla Transparentes HD para Kindle Paperwhite 12.a Generación 2024 y Kindle Colorsoft Signature Edition (7 Pulgadas)</v>
+        <v>SAMSUNG Celular Galaxy A26 5G Verde 128GB</v>
       </c>
       <c r="B35" t="str">
-        <v>229.00</v>
+        <v>4,999.00</v>
       </c>
       <c r="C35" t="str">
-        <v>$23.24</v>
+        <v>$5,399.00</v>
       </c>
       <c r="D35" t="str">
-        <v>https://m.media-amazon.com/images/I/41bLM3l-XaL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51xuc2rjgqL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Sycelu Marcador de páginas con Control Remoto RF para Kindle Paperwhite, Accesorios para iPad, Lectura de Kobo Surface Comics/Novels, iPhone, tabletas, Android, Toma Fotos (Negro)</v>
+        <v>JETech Funda Mate para iPhone 16 6.1 Pulgadas, Antigolpes Protección contra Caídas Grado Militar, Carcasa Trasera Translúcida Esmerilada, Antihuellas (Negro)</v>
       </c>
       <c r="B36" t="str">
-        <v>439.99</v>
+        <v>233.10</v>
       </c>
       <c r="C36" t="str">
-        <v>$540.00</v>
+        <v>$259.00</v>
       </c>
       <c r="D36" t="str">
-        <v>https://m.media-amazon.com/images/I/61rskQmrUzL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61Jhm0ptwyL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Yunir EReader 5 ”Audiolibros 16GBWifi, BT, GPS, FM, Audiolibros de Llamadas de Voz, de Página Más Rápidos</v>
+        <v>Apple iPhone 15 Pro MAX (256 GB) - Titanio Blanco (Reacondicionado)</v>
       </c>
       <c r="B37" t="str">
-        <v>1,367.65</v>
+        <v>N/A</v>
       </c>
       <c r="C37" t="str">
-        <v>$138.81</v>
+        <v>N/A</v>
       </c>
       <c r="D37" t="str">
-        <v>https://m.media-amazon.com/images/I/71bcPdlOmYL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Lecciones de química</v>
+        <v>SAMSUNG Celular Galaxy A56 5G Verde 256GB</v>
       </c>
       <c r="B38" t="str">
-        <v>N/A</v>
+        <v>6,899.00</v>
       </c>
       <c r="C38" t="str">
-        <v>N/A</v>
+        <v>$9,899.00</v>
       </c>
       <c r="D38" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51T12IZGgvL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Recupera tu mente, reconquista tu vida (Espasa Crecimiento personal)</v>
+        <v>Apple iPhone 12, 128GB, (Producto) Rojo (Reacondicionado)</v>
       </c>
       <c r="B39" t="str">
         <v>N/A</v>
@@ -950,91 +950,91 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>RSAquar Funda para 7" Nuevo Kindle Paperwhite (12ª Generación 2024) &amp; Kindle Colorsoft Signature Edition, Funda de protección Completa con Auto Sleep/Wake, Correa de Mano y Soporte Plegable - Negro</v>
+        <v>SAMSUNG Celular Galaxy A36 5G Negro 128GB</v>
       </c>
       <c r="B40" t="str">
-        <v>539.00</v>
+        <v>5,447.00</v>
       </c>
       <c r="C40" t="str">
-        <v>$599.00</v>
+        <v>$6,799.00</v>
       </c>
       <c r="D40" t="str">
-        <v>https://m.media-amazon.com/images/I/81xsPR7kMNL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51DinO-kg2L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>UGREEN Soporte de Almohada para Tablet Ajustable, Multifuncional Soporte Stand Base iPad para Usar en el Sofá Cama con 3 Ajustes, Compatible con iPad Pro 12.9, Air Mini, Galaxy Tab, Kindle, Switch</v>
+        <v>Apple iPhone 15 Pro 128GB, Titanio Blanco (Reacondicionado Premium)</v>
       </c>
       <c r="B41" t="str">
-        <v>499.00</v>
+        <v>N/A</v>
       </c>
       <c r="C41" t="str">
-        <v>$50.64</v>
+        <v>N/A</v>
       </c>
       <c r="D41" t="str">
-        <v>https://m.media-amazon.com/images/I/71Bs2Ed3q6L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Paquete Kindle Paperwhite que incluye el Nuevo Kindle Paperwhite Signature Edition (32GB) - Negro y Funda de Cuero Premium - Color Nogal</v>
+        <v>Apple iPhone 15 Pro, 256GB, Titanio Natural (Reacondicionado Premium)</v>
       </c>
       <c r="B42" t="str">
-        <v>4,198.99</v>
+        <v>N/A</v>
       </c>
       <c r="C42" t="str">
-        <v>$4,998.99</v>
+        <v>N/A</v>
       </c>
       <c r="D42" t="str">
-        <v>https://m.media-amazon.com/images/I/51iZiqAJ0jL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Kepuch 2 Paquetes Vidrio Templado Protector de Pantalla para Kindle 12th 2024 / Kindle 11th 6.0"</v>
+        <v>Apple iPhone 16 Pro Max, 1TB, Titanio Natural (Reacondicionado)</v>
       </c>
       <c r="B43" t="str">
-        <v>169.96</v>
+        <v>N/A</v>
       </c>
       <c r="C43" t="str">
-        <v>$17.25</v>
+        <v>N/A</v>
       </c>
       <c r="D43" t="str">
-        <v>https://m.media-amazon.com/images/I/51oosfDJtPL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Las 48 leyes del poder (Biblioteca Robert Greene)</v>
+        <v>JETech Funda para iPhone 16 6.1 Pulgadas, Carcasa Anti-Amarillo Antigolpes, Anti-Arañazos Respaldo Transparente (Negro)</v>
       </c>
       <c r="B44" t="str">
-        <v>N/A</v>
+        <v>219.00</v>
       </c>
       <c r="C44" t="str">
-        <v>N/A</v>
+        <v>$22.22</v>
       </c>
       <c r="D44" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/616VrQ2ZfeL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Paquete Kindle Paperwhite que incluye el Nuevo Kindle Paperwhite (16GB) - Negro y Funda de Cuero Premium - Color Nogal</v>
+        <v>Apple iPhone 15 Pro, 128GB, Titanio Negro - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B45" t="str">
-        <v>3,598.99</v>
+        <v>N/A</v>
       </c>
       <c r="C45" t="str">
-        <v>$4,198.99</v>
+        <v>N/A</v>
       </c>
       <c r="D45" t="str">
-        <v>https://m.media-amazon.com/images/I/51iZiqAJ0jL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>La biblioteca de la medianoche</v>
+        <v>Apple iPhone 12 Pro, 128GB, Plata (Reacondicionado)</v>
       </c>
       <c r="B46" t="str">
         <v>N/A</v>
@@ -1048,49 +1048,49 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>PUBAMALL Funda Compatible para Kindle Paperwhite (11th Generation-2021), con la función Auto Sleep Wake, para Kindle Paperwhite 2021, 6.8 Inch y Kindle Paperwhite Signature Edition (Negro)</v>
+        <v>JETech Funda Suave Claro para iPhone 16 6.1 Pulgadas, Protección Completa Lente Cámara, Compatible con MagSafe Carga Inalámbrica, Carcasa TPU Galvanizada Antigolpes (Rosa Claro)</v>
       </c>
       <c r="B47" t="str">
-        <v>194.10</v>
+        <v>249.00</v>
       </c>
       <c r="C47" t="str">
-        <v>$239.00</v>
+        <v>$25.27</v>
       </c>
       <c r="D47" t="str">
-        <v>https://m.media-amazon.com/images/I/81kuFZRGnRL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61lqPwPmDBL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>USTIYA Funda para Kindle Paperwhite 12 generacion 2024 7 Pulgadas Carcasa Cuero Protectora TPU+PU Smart Cover (Rosa)</v>
+        <v>Apple iPhone 15 Pro, 128GB, Titanio Azul (Reacondicionado Premium)</v>
       </c>
       <c r="B48" t="str">
-        <v>299.90</v>
+        <v>N/A</v>
       </c>
       <c r="C48" t="str">
-        <v>$30.43</v>
+        <v>N/A</v>
       </c>
       <c r="D48" t="str">
-        <v>https://m.media-amazon.com/images/I/51iCNfQcpsL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>El mundo de Sofia: Novela sobre la historia de la filosofía (Las Tres Edades / Biblioteca Gaarder nº 1)</v>
+        <v>ORNARTO Funda Silicona para iPhone 16 6.1 Pulgadas, Diseño de Protección Completa con Forro de Microfibra, Tacto Sedoso y Resistente a los Arañazos, Rosa</v>
       </c>
       <c r="B49" t="str">
-        <v>N/A</v>
+        <v>299.99</v>
       </c>
       <c r="C49" t="str">
-        <v>N/A</v>
+        <v>$30.44</v>
       </c>
       <c r="D49" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61S8yeJ0UtL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>No estás en la lista</v>
+        <v>SAMSUNG Galaxy A06 4GB 128GB Negro</v>
       </c>
       <c r="B50" t="str">
         <v>N/A</v>
@@ -1104,217 +1104,217 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Harry Potter y el prisionero de Azkaban</v>
+        <v>Xiaomi | Celular Poco X6 Pro 5G Grey 12GB RAM 512GB ROM</v>
       </c>
       <c r="B51" t="str">
-        <v>N/A</v>
+        <v>5,791.36</v>
       </c>
       <c r="C51" t="str">
-        <v>N/A</v>
+        <v>$6,999.00</v>
       </c>
       <c r="D51" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51ms3SAGduL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>HGGWZWIF Funda Compatible para 6 Pulgadas Kindle All-New (11ª Generación - Lanzamiento 2024/2022) con Pegatinas de Lectura, TPU+Acrílico Transparente Carcasa con la función Auto Sleep Wake (Negro)</v>
+        <v>Apple iPhone 11, Totalmente Desbloqueado, 128 GB, Negro (Reacondicionado)</v>
       </c>
       <c r="B52" t="str">
-        <v>349.00</v>
+        <v>N/A</v>
       </c>
       <c r="C52" t="str">
-        <v>$35.42</v>
+        <v>N/A</v>
       </c>
       <c r="D52" t="str">
-        <v>https://m.media-amazon.com/images/I/71K50Lm-vmL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>El libro secreto de los Reptilianos: 10 entrevistas con el poder oculto</v>
+        <v>JETech Funda Glitter para iPhone 16 6.1 Pulgadas, Carcasa Antigolpes Bling Sparkle, Cute Brillante para Niñas y Mujerese (Rosa Claro)</v>
       </c>
       <c r="B53" t="str">
-        <v>N/A</v>
+        <v>219.00</v>
       </c>
       <c r="C53" t="str">
-        <v>N/A</v>
+        <v>$22.22</v>
       </c>
       <c r="D53" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/81NqbT6ulTL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Funda Amazon Kindle, funda protectora plegable fina y ligera - Tela</v>
+        <v>JETech Protector de Pantalla para iPhone 16 6.1 Pulgadas, Instalación Súper Fácil en 10 Segundos, Mica Cristal Vidrio Templado Sin Burbujas, Amigable para Funda, HD Clara, 2 Unidades</v>
       </c>
       <c r="B54" t="str">
-        <v>599.99</v>
+        <v>269.00</v>
       </c>
       <c r="C54" t="str">
-        <v>$60.89</v>
+        <v>$289.00</v>
       </c>
       <c r="D54" t="str">
-        <v>https://m.media-amazon.com/images/I/81OHb4Ca+KL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71hMLRrF5mL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Cubierta de piel para la Kindle Paperwhite (11va generación, 2021)</v>
+        <v>JETech Funda para iPhone 16 6.1 Pulgadas, Carcasa Anti-Amarillo Antigolpes, Anti-Arañazos Respaldo Transparente (Transparente)</v>
       </c>
       <c r="B55" t="str">
-        <v>799.99</v>
+        <v>179.10</v>
       </c>
       <c r="C55" t="str">
-        <v>$81.19</v>
+        <v>$18.17</v>
       </c>
       <c r="D55" t="str">
-        <v>https://m.media-amazon.com/images/I/51ApUsnAryL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61ocJ9nd3VL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>woleyi Soporte para Tablet Cama de Brazo Articulado, Brazo Tablet Mesa Metálico Pinza Ajustable para iPad Pro, iPad Mini, iPad Air, Switch, Kindle, Samsung Tabs, 4-13 Pulgadas Tablets, Cámara, Gopro</v>
+        <v>Quamtum Personal Audio 35W Cargador USB C GAN, Tipo C Carga Rápida para Galaxy S24/S23/S22, Portátil Compatible con iPhone 16/15/14/13 Pro MAX, MacBook Air, iPad Pro</v>
       </c>
       <c r="B56" t="str">
-        <v>1,199.99</v>
+        <v>343.00</v>
       </c>
       <c r="C56" t="str">
-        <v>$121.79</v>
+        <v>$34.81</v>
       </c>
       <c r="D56" t="str">
-        <v>https://m.media-amazon.com/images/I/61dJIwadKIL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51KXN6J6uRL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>woleyi - Soporte magnético para tablet Magsafe para montaje en pared, paquete de 2 bases de taladro para iPad Pro Air Mini | Galaxy Tab | Kindle Fire | Interruptor | teléfono, para cocina, hogar,</v>
+        <v>JETech 5 en 1 Funda para iPhone 16 6.1 Pulgadas con 2 Protector Pantalla Mica Cristal Vidrio Templado y 2 Protector Lente Cámara, Carcasa Anti-Amarillo Antigolpes (Transparente)</v>
       </c>
       <c r="B57" t="str">
-        <v>789.99</v>
+        <v>289.00</v>
       </c>
       <c r="C57" t="str">
-        <v>$80.18</v>
+        <v>$29.33</v>
       </c>
       <c r="D57" t="str">
-        <v>https://m.media-amazon.com/images/I/71sVon57xlL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71uHVpuZhjL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Pasador de Página con Control Remoto para for Kindle, Clicker de Volteador de Página Bluetooth para iOS/Android/tabletas Lectura de Novelas, Me Gusta Rápido, Cambio de Página de</v>
+        <v>JETech Protector de Pantalla Cobertura Completo para iPhone 16 6.1 Pulgadas, Borde Negro Mica Cristal Vidrio Templado con Marco de Instalación Fácil, HD Transparente, 3 Unidades</v>
       </c>
       <c r="B58" t="str">
-        <v>367.00</v>
+        <v>239.00</v>
       </c>
       <c r="C58" t="str">
-        <v>$37.25</v>
+        <v>$24.25</v>
       </c>
       <c r="D58" t="str">
-        <v>https://m.media-amazon.com/images/I/51kDzdzY-iL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71ESRhlpb-L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>SEASKY Soporte deTablet Mesa Cuello Cisne, Soporte Tablet de Brazo Flexible, Rotación Flexible de 360°, para 4-13" Celular y Tablets como Tablet,para iPad Pro, Air, Mini,E-Reader, Kindle</v>
+        <v>Bencuku (2+2 Piezas) Protector de Pantalla para iPhone 16 (6.1 Pulgadas) con Protector de Lente Cámara, Mica Cristal Vidrio Templado, Antiarañazos, Sin Burbujas</v>
       </c>
       <c r="B59" t="str">
-        <v>332.99</v>
+        <v>188.00</v>
       </c>
       <c r="C59" t="str">
-        <v>$369.99</v>
+        <v>$19.08</v>
       </c>
       <c r="D59" t="str">
-        <v>https://m.media-amazon.com/images/I/61+c0NvTD4L._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71kevzQQyML._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Lector de Libros Electrónicos de 1+16 GB, Lector de Libros con Pantalla Táctil de 5,76 Pulgadas, para Android 8.1, Lector de Libros Eléctrico Portátil Eink</v>
+        <v>JETech Protector de Pantalla para iPhone 16 6.1 Pulgadas con Protector de Lente Cámara, Marco de Instalación Fácil, Mica Cristal Vidrio Templado, HD Clara, 2 Paquetes Cada Uno</v>
       </c>
       <c r="B60" t="str">
-        <v>2,385.00</v>
+        <v>269.00</v>
       </c>
       <c r="C60" t="str">
-        <v>$2,588.60</v>
+        <v>$27.30</v>
       </c>
       <c r="D60" t="str">
-        <v>https://m.media-amazon.com/images/I/61QuHY3gTJL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71duLaRDlVL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Lector Electrónico Portátil de 7 Pulgadas, Lector de Libros Electrónicos de Lectura de Libros Digitales con Pantalla Colorida a Prueba de Agua, Lector Eléctrico de 2100 MAh con</v>
+        <v>(2 Pack) Bencuku Mica Protector de Pantalla Privacidad para iPhone 16 6.1 Pulgadas con 2 Piezas Protector de Lente Cámara, Antiespia Cristal Vidrio Templado, Fácil Instalación, Sin Burbujas</v>
       </c>
       <c r="B61" t="str">
-        <v>1,722.00</v>
+        <v>188.00</v>
       </c>
       <c r="C61" t="str">
-        <v>$174.78</v>
+        <v>$19.08</v>
       </c>
       <c r="D61" t="str">
-        <v>https://m.media-amazon.com/images/I/6189Z1MANDL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61x27sn0W2L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>ASHATA Lector de Libros Electrónicos con Pantalla Táctil LCD a Color de 5 Pulgadas y 1+8 GB, Lector Electrónico, Lector de Libros Electrónicos WiFi BT FM Lector de Libros Digitales</v>
+        <v>JETech Funda Silicona Magnética para iPhone 16 6.1 Pulgadas, Compatible con MagSafe, Tacto Suave Sedoso, Carcasa con Protección Lente Cámara Completa (Blanco)</v>
       </c>
       <c r="B62" t="str">
-        <v>1,437.04</v>
+        <v>299.00</v>
       </c>
       <c r="C62" t="str">
-        <v>$145.85</v>
+        <v>$30.34</v>
       </c>
       <c r="D62" t="str">
-        <v>https://m.media-amazon.com/images/I/71JFus3pczL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61c9Py6az9L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Lector de Libros Electrónicos con Pantalla a Color de 5 Pulgadas, Lector de Libros con Pantalla LCD de 2+16 GB para PDF EPUB EPUB3 MOBI, con BT, GPS, FM, Llamada de Voz para Android 5.1</v>
+        <v>JETech 5 en 1 Funda Mate para iPhone 16 6.1 Pulgadas con 2 Protectores Pantalla Mica Cristal Vidrio Templado y 2 Protectores Lente Cámara, Carcasa Translúcida Respaldo (Negro)</v>
       </c>
       <c r="B63" t="str">
-        <v>1,250.96</v>
+        <v>319.00</v>
       </c>
       <c r="C63" t="str">
-        <v>$1,706.60</v>
+        <v>$32.37</v>
       </c>
       <c r="D63" t="str">
-        <v>https://m.media-amazon.com/images/I/61Dlmvi5oWL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61XKJBW+1bL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>STHIRA Soporte Tablet Automovil, Ajustable Brazo Retráctil Clip, Soporte iPad Reposacabezas Giro de 360 ° Auto Coche Carro para 4.7-13" Celular y Tablets/Samsung Tab/iPad Pro Air/Mini E-Reader Kindle</v>
+        <v>JETech Funda Suave Claro para iPhone 16 6.1 Pulgadas, Protección Completa Lente Cámara, Compatible con MagSafe Carga Inalámbrica, Carcasa TPU Galvanizada Antigolpes (Rosa Claro)</v>
       </c>
       <c r="B64" t="str">
-        <v>179.00</v>
+        <v>249.00</v>
       </c>
       <c r="C64" t="str">
-        <v>$59.66</v>
+        <v>$25.27</v>
       </c>
       <c r="D64" t="str">
-        <v>https://m.media-amazon.com/images/I/71geES9gokL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61lqPwPmDBL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>JESWO Soporte para Tablet Automovil, Soporte para iPad Reposacabezas de Carro, Ajustable Soporte Tablet Auto para 4.6-12.9'', Soporte iPad Auto para iPad Pro, Air, Mini, Kindle, Huawei Tab, etc.</v>
+        <v>Protector de Pantalla para iPhone 16 6.1 Pulgadas, Con aplicador de película auxiliar, compatible con fundas de teléfonos móviles, alta transparencia, alta definición, fácil de instalar, eliminación automática de polvo 3 piezas</v>
       </c>
       <c r="B65" t="str">
-        <v>159.20</v>
+        <v>159.00</v>
       </c>
       <c r="C65" t="str">
-        <v>$199.00</v>
+        <v>$16.13</v>
       </c>
       <c r="D65" t="str">
-        <v>https://m.media-amazon.com/images/I/61-+lxtU1bL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71yzV+c0geL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>El hombre en busca de sentido</v>
+        <v>Apple iPhone SE 3ra Gen, 128GB, (Product) Red (Reacondicionado)</v>
       </c>
       <c r="B66" t="str">
         <v>N/A</v>
@@ -1328,119 +1328,119 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Si lo crees, lo creas</v>
+        <v>Apple iPhone XR, 128GB, Negro (Reacondicionado)</v>
       </c>
       <c r="B67" t="str">
-        <v>N/A</v>
+        <v>4,075.25</v>
       </c>
       <c r="C67" t="str">
-        <v>N/A</v>
+        <v>$4,602.52</v>
       </c>
       <c r="D67" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51z1UO6N6LL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>¿ Cómo trabajar de forma más eficaz y sencilla ?: Guía práctica para vencer la procrastinación, retomar el control de tu vida, alcanzar tus objetivos y ... (Dominar el arte de la productividad nº 2)</v>
+        <v>Jectse I14pro Smartphone, 6.1 Pulgadas Dual SIM Desbloqueado TeléFono Celular 4GB 32GB ROM Azul TeléFono MóVil para 11, Frente 8MP Trasero 16MP, 6800mAh, Desbloqueo Facial</v>
       </c>
       <c r="B68" t="str">
-        <v>N/A</v>
+        <v>1,287.00</v>
       </c>
       <c r="C68" t="str">
-        <v>N/A</v>
+        <v>$130.63</v>
       </c>
       <c r="D68" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61UWbK4Y-wL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Lector de Libros Electrónicos con Pantalla a Color de 5 Pulgadas, Lector de Libros con Pantalla LCD de 2+16 GB para PDF EPUB EPUB3 MOBI, con BT, GPS, FM, Llamada de Voz para Android 5.1</v>
+        <v>Cargador Inalámbrico para iPhone 3 en 1, Estación de Carga Magnético con Adaptador de 18W, Cargador Magsafe Inalámbrico para iPhone 16 15 14 13 12 Pro MAX Plus y iWatch Airpods (Negro)</v>
       </c>
       <c r="B69" t="str">
-        <v>1,250.96</v>
+        <v>599.99</v>
       </c>
       <c r="C69" t="str">
-        <v>$1,706.60</v>
+        <v>$60.89</v>
       </c>
       <c r="D69" t="str">
-        <v>https://m.media-amazon.com/images/I/61Dlmvi5oWL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/615Jl07lBwL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Cómo manipular sin que nadie lo note: Técnicas sutiles de poder emocional, influencia invisible y control cotidiano</v>
+        <v>JETech Funda Ondulado para iPhone 16 6.1 Pulgadas, Carcasa Marco de Onda Linda Forma Rizado Antigolpes para Mujeres y Niñas, Respaldo Transparente PC Dura (Rosa Claro)</v>
       </c>
       <c r="B70" t="str">
-        <v>N/A</v>
+        <v>219.00</v>
       </c>
       <c r="C70" t="str">
-        <v>N/A</v>
+        <v>$22.22</v>
       </c>
       <c r="D70" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61lQG5qPMOL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Las 20 leyes de la astucia: Selecciona (Estrategias y estratagemas)</v>
+        <v>Apple iPhone 15 Plus (128 GB) - Negro</v>
       </c>
       <c r="B71" t="str">
-        <v>N/A</v>
+        <v>17,999.10</v>
       </c>
       <c r="C71" t="str">
-        <v>N/A</v>
+        <v>$19,999.00</v>
       </c>
       <c r="D71" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51nHt+jXdjL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>HGGWZWIF 2pcs Funda para Kindle (Versión 11.ª Generación 2024/2022 6 Pulgadas), Paquete de 2 Transparente Case +Pegatinas de Lectura,Silicona TPU Antigolpes Clear Carcasa para e-Book Reader</v>
+        <v>JETech Funda Mate para iPhone 16e 6.1 Pulgadas 2025, Antigolpes Protección contra Caídas Grado Militar, Carcasa Trasera Translúcida Esmerilada, Antihuellas (Negro)</v>
       </c>
       <c r="B72" t="str">
-        <v>349.00</v>
+        <v>239.00</v>
       </c>
       <c r="C72" t="str">
-        <v>$599.00</v>
+        <v>$24.25</v>
       </c>
       <c r="D72" t="str">
-        <v>https://m.media-amazon.com/images/I/71DF89RAV3L._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61SQ5XqLeeL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>The Agatha Christie Collection: A Definitive Library of Suspense, Deception, and Brilliant Detective Work (English Edition)</v>
+        <v>memumi Funda Ultra Fina con Magnetico para iPhone 16, Super Ligera 0.3mm Mate con Cámara Protección Completa para iPhone 16 Funda Magnética Compatible con Magsafe en Minimalista, Negro</v>
       </c>
       <c r="B73" t="str">
-        <v>N/A</v>
+        <v>359.00</v>
       </c>
       <c r="C73" t="str">
-        <v>N/A</v>
+        <v>$36.43</v>
       </c>
       <c r="D73" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/716hjMnexUL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Illuminati: El Ojo que Todo lo Ve y la Agenda que No Puedes Escapar: Rituales, Símbolos y secretos del poder oculto que domina gobiernos, medios y tu mente sin que lo notes</v>
+        <v>Mini Smartphone 4G,Teléfono inteligente pequeño desbloqueado con 2GB + 16GB, 3.0" pantalla táctil HD, Batería de 2000 mAh,Doble SIM, Teléfono celular de bolsillo,Teléfono mini para niños -Rosa</v>
       </c>
       <c r="B74" t="str">
-        <v>N/A</v>
+        <v>1,299.99</v>
       </c>
       <c r="C74" t="str">
-        <v>N/A</v>
+        <v>$131.94</v>
       </c>
       <c r="D74" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61HGdYx4wVL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>El Archivo Prohibido del Vaticano: Verdades enterradas, rituales malditos y el legado oculto que podría cambiar la historia de la humanidad</v>
+        <v>Apple iPhone 15 Pro, 256GB, Titanio Azul (Reacondicionado Premium)</v>
       </c>
       <c r="B75" t="str">
         <v>N/A</v>
@@ -1454,21 +1454,21 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Yctze Lector de Libros Electrónicos Portátil con Pantalla Colorida de 7 Pulgadas, Compatible con Tarjetas de Memoria y Periféricos, Ideal para Libros Electrónicos Kindle Edición</v>
+        <v>Apple iPhone 13 (512 GB) - Blanco Estelar</v>
       </c>
       <c r="B76" t="str">
-        <v>1,425.00</v>
+        <v>20,499.00</v>
       </c>
       <c r="C76" t="str">
-        <v>$144.63</v>
+        <v>$1,852.08</v>
       </c>
       <c r="D76" t="str">
-        <v>https://m.media-amazon.com/images/I/61TH+YrDc-L._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71GLMJ7TQiL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>The Art of Option Buying: Master the Market: Proven Strategies to Profit from Buying Options (English Edition)</v>
+        <v>iLight Mini Smartphone 16 Pro Max - El teléfono celular Android 16Pro más pequeño del mundo 4G LTE visualización táctil súper pequeña pequeña de 3 pulgadas. Desbloqueado, ideal para niños y</v>
       </c>
       <c r="B77" t="str">
         <v>N/A</v>
@@ -1482,49 +1482,49 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Consíguelo Sin Esfuerzo : El método mental más simple para lograr lo que deseas sin rogar, empujar ni estresarte</v>
+        <v>Photo Stick de 128 GB para iPhone 15 y iPhone 16 | Unidad flash USB C Memory Stick iPhone USB Almacenamiento para iPhone 15 y iPhone 16, iPad, Android, PC, fotos, vídeos, contactos de copia de</v>
       </c>
       <c r="B78" t="str">
-        <v>N/A</v>
+        <v>859.84</v>
       </c>
       <c r="C78" t="str">
-        <v>N/A</v>
+        <v>$87.27</v>
       </c>
       <c r="D78" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61wI-8hm5nL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Fintie Funda para Kindle Paperwhite de 6,8" (11.ª generación - 2021) y Kindle Paperwhite Signature Edition, Funda de sintética Ligera de Primera Calidad con función de Reposo/activación automática</v>
+        <v>MOFIT Mini Power Bank Salida Tipo C Carga Rápida PD 20W Integrado Batería Portátil Banco de Energía 5000 mAh Compatible con los Celulares iPhone 16/15 Pro MAX Samsung Xiaomi Google,¡Idea de Regalo</v>
       </c>
       <c r="B79" t="str">
-        <v>289.00</v>
+        <v>N/A</v>
       </c>
       <c r="C79" t="str">
-        <v>$329.00</v>
+        <v>N/A</v>
       </c>
       <c r="D79" t="str">
-        <v>https://m.media-amazon.com/images/I/8131nK5UJ4L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Cómo Dominar tus Pensamientos Negativos: La guía definitiva para transformar tu mente en 5 minutos diarios: Método DOMINAR para reducir la ansiedad y eliminar la preocupación</v>
+        <v>JETech Funda Silicona Magnética para iPhone 16 6.1 Pulgadas, Compatible con MagSafe, Tacto Suave Sedoso, Carcasa con Protección Lente Cámara Completa (Rosado)</v>
       </c>
       <c r="B80" t="str">
-        <v>N/A</v>
+        <v>299.00</v>
       </c>
       <c r="C80" t="str">
-        <v>N/A</v>
+        <v>$30.34</v>
       </c>
       <c r="D80" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/615l+BkjuEL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Después de ti: Cómo sanar escribiendo</v>
+        <v>Apple iPhone 14 Pro Max, 128GB, Silver - Unlocked (Renewed Premium)</v>
       </c>
       <c r="B81" t="str">
         <v>N/A</v>
@@ -1538,63 +1538,63 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>De niño a hombre</v>
+        <v>UGREEN USB C Lector de Tarjetas SD/MicroSD, Adaptador Tarjetas SD Tipo C Compatible con Thunderbolt 3 para MacBook Pro, MacBook, MacBook Air/iPad Pro 2022/2020, iPhone 16, Galaxy S24/S23/S22/S21</v>
       </c>
       <c r="B82" t="str">
-        <v>135.45</v>
+        <v>419.00</v>
       </c>
       <c r="C82" t="str">
-        <v>$219.00</v>
+        <v>$42.52</v>
       </c>
       <c r="D82" t="str">
-        <v>https://m.media-amazon.com/images/I/811eKeLsBRL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61VWPezoXBL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>RSAquar Funda para 7" Nuevo Kindle Paperwhite (12ª Generación 2024) &amp; Kindle Colorsoft Signature Edition, Funda de protección Completa con Auto Sleep/Wake, Correa de Mano y Soporte Plegable - Negro</v>
+        <v>Apple Funda de silicón con MagSafe para el iPhone 16 - Amarillo Carambola ​​​​​​​</v>
       </c>
       <c r="B83" t="str">
-        <v>539.00</v>
+        <v>1,099.00</v>
       </c>
       <c r="C83" t="str">
-        <v>$599.00</v>
+        <v>$111.54</v>
       </c>
       <c r="D83" t="str">
-        <v>https://m.media-amazon.com/images/I/81xsPR7kMNL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61uhOJ1OPTL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Balabow Funda para Kindle Paperwhite de 7 Pulgadas, 12.ª Generación, Versión 2024, Funda para Kindle Paperwhite 12 Generacion (Negro, 12ª generación, 2024)</v>
+        <v>SAMSUNG Galaxy S24 +, Violeta, 12GB_512GB</v>
       </c>
       <c r="B84" t="str">
-        <v>239.00</v>
+        <v>22,499.00</v>
       </c>
       <c r="C84" t="str">
-        <v>$24.25</v>
+        <v>$26,999.00</v>
       </c>
       <c r="D84" t="str">
-        <v>https://m.media-amazon.com/images/I/71JJD3Tc5UL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/31pmnCdawbL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Saga Maze Runner (4 Libros)</v>
+        <v>Apple iPhone 13, 128 GB, Medianoche - Desbloqueado (Premium renovado)</v>
       </c>
       <c r="B85" t="str">
-        <v>683.23</v>
+        <v>N/A</v>
       </c>
       <c r="C85" t="str">
-        <v>$1,099.00</v>
+        <v>N/A</v>
       </c>
       <c r="D85" t="str">
-        <v>https://m.media-amazon.com/images/I/814sscbI3fL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Dios No Escribió la Biblia Revelaciones que Destruyen el Mito Sagrado: Lo que descubrís en este libro no es blasfemia… es historia, lógica y verdad.</v>
+        <v>Somony Memoria USB 3.0 para iPhone, Almacenamiento Externo, USB 3.0 Photo Stick para iPhone, Android Mobile Pad, Carcasa de Metal USB C y Unidad Flash giratoria (Rosa, 512 GB)</v>
       </c>
       <c r="B86" t="str">
         <v>N/A</v>
@@ -1608,21 +1608,21 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Contratado por el multimillonario: Los hermanos multimillonarios Libro 3</v>
+        <v>Apple iPhone 15 Plus, 128 GB, Negro - At&amp;T (Renovado)</v>
       </c>
       <c r="B87" t="str">
-        <v>N/A</v>
+        <v>11,479.22</v>
       </c>
       <c r="C87" t="str">
-        <v>N/A</v>
+        <v>$956.60</v>
       </c>
       <c r="D87" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51PtFHUPjBL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Soulless Mates: The Crossroads (The Heartless Souls Book 1) (English Edition)</v>
+        <v>Apple iPhone 12 Pro, 256GB, Azul Pacifico (Reacondicionado)</v>
       </c>
       <c r="B88" t="str">
         <v>N/A</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>EL CAMINO DE EIDAN (CRÓNICAS DE KAEL’THAR nº 1)</v>
+        <v>Apple iPhone 12, 128GB, Verde - Desbloqueado (Renovado De Primera Calidad)</v>
       </c>
       <c r="B89" t="str">
         <v>N/A</v>
@@ -1650,49 +1650,49 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>El silencio de las sirenas</v>
+        <v>JETech Protector de Pantalla para iPhone 16 6.1 Pulgadas, Instalación Súper Fácil en 10 Segundos, Mica Cristal Vidrio Templado Sin Burbujas, Amigable para Funda, HD Clara, 2 Unidades</v>
       </c>
       <c r="B90" t="str">
-        <v>N/A</v>
+        <v>269.00</v>
       </c>
       <c r="C90" t="str">
-        <v>N/A</v>
+        <v>$289.00</v>
       </c>
       <c r="D90" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71hMLRrF5mL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Franz Kafka: Obras completas</v>
+        <v>Apple iPhone 11 Pro (restaurado) (Reacondicionado)</v>
       </c>
       <c r="B91" t="str">
-        <v>N/A</v>
+        <v>5,938.20</v>
       </c>
       <c r="C91" t="str">
-        <v>N/A</v>
+        <v>$6,934.73</v>
       </c>
       <c r="D91" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61G2REmnBIL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>La maldición Van Gogh (Terror en familia)</v>
+        <v>HUAWEI nova 13 Pro Smartphone 12+512G, Cámara Selfie dual Ultra Retrato de 60 MP, Mejor Expresión con IA, HUAWEI SuperCharge Turbo de 100 W, Gran Batería de 5000 mAh, Celular Verde + Regalo WATCH GT 4</v>
       </c>
       <c r="B92" t="str">
-        <v>0.00</v>
+        <v>15,288.52</v>
       </c>
       <c r="C92" t="str">
-        <v>$65.28</v>
+        <v>$1,274.08</v>
       </c>
       <c r="D92" t="str">
-        <v>https://m.media-amazon.com/images/I/81mqKa7TpjL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/712MQEBm7cL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mecánica de Coches para Mortales: Sin Sudor ni Lágrimas: La Guía Definitiva para Entender y Mantener tu Vehículo</v>
+        <v>Apple iPhone 13 Pro, 128GB, Verde Alpino (Reacondicionado Premium)</v>
       </c>
       <c r="B93" t="str">
         <v>N/A</v>
@@ -1706,35 +1706,35 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Querido señor imposible: Novela Romantica Contemporanea</v>
+        <v>Motorola G15 Naranja (4GB RAM/128GB), 50MP, Celular Desbloqueado</v>
       </c>
       <c r="B94" t="str">
-        <v>N/A</v>
+        <v>2,225.00</v>
       </c>
       <c r="C94" t="str">
-        <v>N/A</v>
+        <v>$3,499.00</v>
       </c>
       <c r="D94" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61q3-+AisBL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Dentro del Monstruo 13 Psicópatas Reales que Destrozaron el Sueño Americano: Asesinos en serie, manipulación, rituales y horror sin redención en los rincones más oscuros de EE.UU.</v>
+        <v>UGREEN Lector de Tarjetas USB C OTG 5Gbps Compatible con TF, SD, Micro SD, SDXC, SDHC, MMC, RS-MMC, Micro SDXC, Micro SDHC,UHS-I, Windows Mac OS Linux,Macbook Pro,iPhone 16,Galaxy S23 S22</v>
       </c>
       <c r="B95" t="str">
-        <v>N/A</v>
+        <v>349.00</v>
       </c>
       <c r="C95" t="str">
-        <v>N/A</v>
+        <v>$35.42</v>
       </c>
       <c r="D95" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61FgkFg0-gL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Remedios Naturales para la Salud: Recetas Caseras para Combatir la Inflamación y el Dolor</v>
+        <v>Apple iPhone 15, 128GB, Amarillo (Reacondicionado)</v>
       </c>
       <c r="B96" t="str">
         <v>N/A</v>
@@ -1748,63 +1748,63 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Dracula [Kindle in Motion] (English Edition)</v>
+        <v>Apple iPhone 12 (128 GB) - Verde</v>
       </c>
       <c r="B97" t="str">
-        <v>N/A</v>
+        <v>16,499.00</v>
       </c>
       <c r="C97" t="str">
-        <v>N/A</v>
+        <v>$1,490.68</v>
       </c>
       <c r="D97" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71cQWYVtcBL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>PUBAMALL Funda para Kindle Paperwhite (10.ª generación - Modelo de 2018), con la función Auto Sleep Wake,para Kindle Paperwhite 10th Gen 2018 Released</v>
+        <v>Apple iPhone 13 Mini (512 GB) - (Product) Red</v>
       </c>
       <c r="B98" t="str">
-        <v>197.10</v>
+        <v>23,999.00</v>
       </c>
       <c r="C98" t="str">
-        <v>$219.00</v>
+        <v>$2,168.30</v>
       </c>
       <c r="D98" t="str">
-        <v>https://m.media-amazon.com/images/I/61ZuY6pVGgL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61VByDni+vL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>El Código 369: Neurociencia Cuántica de la Manifestación Consciente</v>
+        <v>HUAWEI Pura 70 Smartphone, 12+256GB, Instantánea Ultrarrápida, Super Macro, Kunlun Glass, EMUI 14.2, HUAWEI SuperCharge de 66W, Batería de 5050mAh, Negro + Regalo Freebuds Pro 3 (Color aleatorio)</v>
       </c>
       <c r="B99" t="str">
-        <v>N/A</v>
+        <v>12,800.60</v>
       </c>
       <c r="C99" t="str">
-        <v>N/A</v>
+        <v>$1,066.79</v>
       </c>
       <c r="D99" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/7166EyAmAAL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Aventuras en la Biblia: Heroes 2 - historias Biblicas para niños de 4 a 12 años (La biblia: colección de libros para leer y colorear)</v>
+        <v>GOVNDVN - Palo de fotos para iPhone 16 15, 128 GB, iPhone-Photo-Stick iPad, Android, MacBook PC, fotos, videos, contactos, copia de seguridad, proteger con contraseña, iPhone, Photostick,</v>
       </c>
       <c r="B100" t="str">
-        <v>N/A</v>
+        <v>804.93</v>
       </c>
       <c r="C100" t="str">
-        <v>N/A</v>
+        <v>$81.70</v>
       </c>
       <c r="D100" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/610-+Air8XL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>El Evangelio Perdido del Vaticano: María Magdalena, el hijo oculto y la verdad que el Papa jamás admitiría</v>
+        <v>Apple- iPhone 13, versión Estadounidense, 128 GB, Color Medianoche para T-Mobile (renovado)</v>
       </c>
       <c r="B101" t="str">
         <v>N/A</v>
@@ -1818,35 +1818,35 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>LILITH: Mujer y Demonio</v>
+        <v>SAMSUNG Galaxy S24 FE 5G Gris 8GB RAM 256GB, AI, Nacional con Garantía</v>
       </c>
       <c r="B102" t="str">
-        <v>N/A</v>
+        <v>10,299.00</v>
       </c>
       <c r="C102" t="str">
-        <v>N/A</v>
+        <v>$15,499.00</v>
       </c>
       <c r="D102" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51SzFi3-BAL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>SENECESLI Lector de Libros Electrónicos, Lectores Electrónicos para Adolescentes, Adultos y Personas Mayores, 64 GB Ampliables, para Android 8.1, 1500 MAh, con Pantalla Eink de 5,76</v>
+        <v>Apple iPhone 12 Pro, 128GB, Azul Pacífico (Reacondicionado Premium)</v>
       </c>
       <c r="B103" t="str">
-        <v>1,676.00</v>
+        <v>N/A</v>
       </c>
       <c r="C103" t="str">
-        <v>$170.11</v>
+        <v>N/A</v>
       </c>
       <c r="D103" t="str">
-        <v>https://m.media-amazon.com/images/I/61tUTWzVocL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Dulce Como Arsénico</v>
+        <v>iPhone 13, 256GB, Pink - Unlocked (Renewed Premium)</v>
       </c>
       <c r="B104" t="str">
         <v>N/A</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Teotihuacán: Un apasionante repaso a la primera gran ciudad de Mesoamérica y su influencia en civilizaciones mesoamericanas como la maya y la Azteca (El Antiguo México)</v>
+        <v>Apple iPhone 11 Pro, 64GB, Gris Espacial (Reacondicionado)</v>
       </c>
       <c r="B105" t="str">
         <v>N/A</v>
@@ -1874,21 +1874,21 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Domesticando a la hija del millonario: Novela Romantica Contemporanea</v>
+        <v>OPPO Reno12 5G Gris Mercurio 12GB+512GB, AI, Super Charge, 3 Años de Garantía + 6 Meses de Protección de Pantalla</v>
       </c>
       <c r="B106" t="str">
-        <v>N/A</v>
+        <v>10,727.78</v>
       </c>
       <c r="C106" t="str">
-        <v>N/A</v>
+        <v>$11,999.00</v>
       </c>
       <c r="D106" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71Zcqhn0igL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Proyecto Verme: Ciclo Uno : Un thriller psicológico que explora los límites de la mente humana</v>
+        <v>SAMSUNG Galaxy Z Flip 4 SM-F721U1 - (128 GB, grafito) (Reacondicionado)</v>
       </c>
       <c r="B107" t="str">
         <v>N/A</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>La Búsqueda del oráculo de Hércules</v>
+        <v>Apple iPhone 15 Pro, 256GB, Titanio Negro (Reacondicionado Premium)</v>
       </c>
       <c r="B108" t="str">
         <v>N/A</v>
@@ -1916,35 +1916,35 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>El Kybalión de Hermes Trimegisto (Tabla de Esmeralda)</v>
+        <v>Apple iPhone SE de 3.ª generación, 128 GB, Luz de Las Estrellas - Desbloqueado (Renovado De Primera Calidad)</v>
       </c>
       <c r="B109" t="str">
-        <v>49.00</v>
+        <v>6,010.39</v>
       </c>
       <c r="C109" t="str">
-        <v>$63.31</v>
+        <v>$500.86</v>
       </c>
       <c r="D109" t="str">
-        <v>https://m.media-amazon.com/images/I/A1A5mIISuZL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61-MT8AQAPL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Tercer Ojo: La Guía Definitiva Para Activar Tu Glándula Pineal, Desarrollar Clarividencia Y Despertar Tu Visión Interior</v>
+        <v>Apple Funda de silicón con MagSafe para el iPhone 16 – Violeta Azul ​​​​​​​</v>
       </c>
       <c r="B110" t="str">
-        <v>N/A</v>
+        <v>1,099.00</v>
       </c>
       <c r="C110" t="str">
-        <v>N/A</v>
+        <v>$111.54</v>
       </c>
       <c r="D110" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61bRzoyUBNL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Alas de ónix (Empíreo 3) (Planeta Internacional)</v>
+        <v>Apple iPhone 14 Pro, 128GB, Gold - Unlocked (Renewed Premium)</v>
       </c>
       <c r="B111" t="str">
         <v>N/A</v>
@@ -1958,63 +1958,63 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Hábitos Millonarios SMART: Pequeños cambios diarios para alcanzar la LIBERTAD FINANCIERA</v>
+        <v>Apple iPhone SE (2nd Generation), 128GB, Blanco - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B112" t="str">
-        <v>0.00</v>
+        <v>N/A</v>
       </c>
       <c r="C112" t="str">
-        <v>$39.99</v>
+        <v>N/A</v>
       </c>
       <c r="D112" t="str">
-        <v>https://m.media-amazon.com/images/I/71DGGNlG1IL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Este dolor no es mío</v>
+        <v>Apple iPhone 12 Mini, 128GB, Morado - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B113" t="str">
-        <v>139.45</v>
+        <v>N/A</v>
       </c>
       <c r="C113" t="str">
-        <v>$174.31</v>
+        <v>N/A</v>
       </c>
       <c r="D113" t="str">
-        <v>https://m.media-amazon.com/images/I/71jsrWn2xsL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>CC- El Idiota Que Siempre Estuvo Ahí: Un romance que te romperá el corazón... y luego te lo curará. (CELESTE DE CORAL23 nº 12)</v>
+        <v>QWYJ Protector Lente de Cámara para iPhone 16 y iPhone 16 Plus Camera Protector Cristal Templado (3 Unidades) Cámara Película Protectora Mica de Lente</v>
       </c>
       <c r="B114" t="str">
-        <v>N/A</v>
+        <v>169.00</v>
       </c>
       <c r="C114" t="str">
-        <v>N/A</v>
+        <v>$17.15</v>
       </c>
       <c r="D114" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51QKkpusUVL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>CC- Nos Casamos Por Error: Una comedia romántica emocional que empieza con un error… y termina con un sí real. (CELESTE DE CORAL23 nº 16)</v>
+        <v>JETech Protector Pantalla Privacidad Cobertura Completo para iPhone 16 6.1 Pulgadas, Borde Negro Mica Cristal Vidrio Templado Antiespia con Marco de Instalación Fácil, 2 Unidades</v>
       </c>
       <c r="B115" t="str">
-        <v>N/A</v>
+        <v>259.00</v>
       </c>
       <c r="C115" t="str">
-        <v>N/A</v>
+        <v>$26.28</v>
       </c>
       <c r="D115" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71otr8pP3vL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>IA PARA HUMANOS: Automatiza tu Vida con ChatGPT, Notion, Canva y Otras Herramientas que Harán el Trabajo por Ti (Sin Saber Programar)</v>
+        <v>MOFIT 10000mAh Power Bank con Cables Incorporados, Cargador Portátil, 5 Salidas 2 Entradas Pantalla LED Batería Externa Compatible con iPhone 16 15 14 iPad Xiaomi 15 Ultra 4 Galaxy S25 Ultra</v>
       </c>
       <c r="B116" t="str">
         <v>N/A</v>
@@ -2028,147 +2028,147 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Agentes de IA para empresas: Cómo crear un equipo de empleados digitales con inteligencia artificial para acelerar el marketing, triplicar las ventas y automatizar tu negocio</v>
+        <v>Protector Pantalla de Privacidad para iPhone 16 serie,Mica Cristal Vidrio Templado con Marco de Instalación Fácil,con Protector de Lente de Cámara,2 Paquetes Cada Uno (16 Pro Max Protector de Pantalla)</v>
       </c>
       <c r="B117" t="str">
-        <v>N/A</v>
+        <v>278.99</v>
       </c>
       <c r="C117" t="str">
-        <v>N/A</v>
+        <v>$28.31</v>
       </c>
       <c r="D117" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71ioVWt0kAL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>RSAquar Funda Compatible con 7" Nuevo Kindle Paperwhite (12ª Generación 2024) &amp; Kindle Colorsoft Signature Edition, Funda Protectora Delgada con Auto Sleep/Wake - Negro</v>
+        <v>amFilm [2+2 Piezas] OneTouch Compatible con iPhone 16 6.1 Pulgadas (2024) Protector de Pantalla, Mica Cristal Vidrio Templado,con Protector de Lente de Cámara, Instalación Más Fácil</v>
       </c>
       <c r="B118" t="str">
-        <v>359.00</v>
+        <v>239.00</v>
       </c>
       <c r="C118" t="str">
-        <v>$399.00</v>
+        <v>$24.25</v>
       </c>
       <c r="D118" t="str">
-        <v>https://m.media-amazon.com/images/I/819MCulMQfL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71zrW7U7QVL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>TOPOST Funda Compatible con Kindle 6 Pulgadas 11ª Generacion 2024/2022 All-New con Función Auto Sleep Wake (Negro)</v>
+        <v>MOFIT Banco de Energía Portátil 20000mAh 22.5W Carga Rápida | USB-C y Pantalla LED | Compatible con iPhone 16/15/14, Samsung Galaxy, Xiaomi, iPad, Motorola, OPPO (Negro)</v>
       </c>
       <c r="B119" t="str">
-        <v>229.00</v>
+        <v>N/A</v>
       </c>
       <c r="C119" t="str">
-        <v>$23.24</v>
+        <v>N/A</v>
       </c>
       <c r="D119" t="str">
-        <v>https://m.media-amazon.com/images/I/81G5jTFePDL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>ZIZEV Protector de Lector Electrónico, Exquisito Acabado en Cuero de Microfibra, Delicadamente Elaborado, Suave y Generoso, Estuche para Lector Electrónico Kindle Paperwhite (Recuerdo</v>
+        <v>JETech Funda Silicona Magnética para iPhone 16 6.1 Pulgadas, Compatible con MagSafe, Tacto Suave Sedoso, Carcasa con Protección Lente Cámara Completa (Negro)</v>
       </c>
       <c r="B120" t="str">
-        <v>424.81</v>
+        <v>299.00</v>
       </c>
       <c r="C120" t="str">
-        <v>$43.11</v>
+        <v>$30.34</v>
       </c>
       <c r="D120" t="str">
-        <v>https://m.media-amazon.com/images/I/71C1nU59FJL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/614ktZ2jWVL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Kepuch 2 Paquetes Vidrio Templado Protector de Pantalla para Kindle Paperwhite 11th 2021 6.8"/Paperwhite 5/Signature Edition/Kids</v>
+        <v>MOFIT PD3.0 Banco de Energía Portátil 26800mAh 22.5W, Cargador Rápido USB-C, Batería Externa Delgada con Funda - Compatible con iPhone 16/15/14, Samsung Galaxy, Motorola, Xiaomi, iPad (Regalo Ideal)</v>
       </c>
       <c r="B121" t="str">
-        <v>249.96</v>
+        <v>N/A</v>
       </c>
       <c r="C121" t="str">
-        <v>$25.37</v>
+        <v>N/A</v>
       </c>
       <c r="D121" t="str">
-        <v>https://m.media-amazon.com/images/I/51eVwdR3jsL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>ASHATA Lector de Libros Electrónicos de 6 Pulgadas, Lector Electrónico Compacto y Liviano, Lector de Libros Eléctrico con Almacenamiento 8G, Lector de Libros con Pantalla de Tinta de</v>
+        <v>KELIN artfone 4G Teléfono Móvil para Personas Mayores con Botón Grande, Teléfono Basico para Ancianos 4g/LTE, con Función SOS, Volumen Alto, 1800 mAh con Base de Carga, Un Solo SIM, Linterna (Negro)</v>
       </c>
       <c r="B122" t="str">
-        <v>2,049.00</v>
+        <v>862.20</v>
       </c>
       <c r="C122" t="str">
-        <v>$207.97</v>
+        <v>$958.00</v>
       </c>
       <c r="D122" t="str">
-        <v>https://m.media-amazon.com/images/I/71Xi9BWooYL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71JryHTbWFL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>LEFUS Funda para Kindle Paperwhite 7 Pulgadas, 12ª Funda Kindle Paperwhite 2024 con la Función Auto Sleep Wake. (Invitación)</v>
+        <v>Xiaomi Redmi Note 11 Pro 5G 128GB 6GB Gris</v>
       </c>
       <c r="B123" t="str">
-        <v>149.00</v>
+        <v>4,694.25</v>
       </c>
       <c r="C123" t="str">
-        <v>$15.12</v>
+        <v>$7,000.00</v>
       </c>
       <c r="D123" t="str">
-        <v>https://m.media-amazon.com/images/I/71pvavU6LYL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51MZ60K4gzL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Fockety Lector de Libros Electrónicos, 1 GB RAM 32GB ROM WiFi Diseinado de EReader Portátil con Pantalla de Tinta E de 5.76 Pulgadas, Tableta Epaper Amigable con los Ojos con Bluetooth (Blue)</v>
+        <v>Memoria USB de 128 GB, iPhone USB 3.0 Pendrive para iOS, Memoria Externa iPhone, USB C Key Photo Stick 4 en 1 One-Click Backup Pen para iPhone/iPad/Android/Mac/PC (Rosa, 128 GB)</v>
       </c>
       <c r="B124" t="str">
-        <v>2,497.00</v>
+        <v>N/A</v>
       </c>
       <c r="C124" t="str">
-        <v>$253.44</v>
+        <v>N/A</v>
       </c>
       <c r="D124" t="str">
-        <v>https://m.media-amazon.com/images/I/71SULGENTvL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Soporte para Tablet Automovil Ajustable Reposacabezas - Soporte Giro de 360 °, Soporte Reposacabezas Auto Coche Carro para 4.7-12.9", Brazo de Extensión, para iPad Pro, Air, Mini, E-reader, Kindle</v>
+        <v>Apple iPhone 12 Pro Max, 128 GB, Oro (Reacondicionado Premium)</v>
       </c>
       <c r="B125" t="str">
-        <v>129.99</v>
+        <v>N/A</v>
       </c>
       <c r="C125" t="str">
-        <v>$13.19</v>
+        <v>N/A</v>
       </c>
       <c r="D125" t="str">
-        <v>https://m.media-amazon.com/images/I/61e0ALHdvML._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>MoKo Soft Hand Strap for 6-8" Kindle eReaders Fire Tablet -Kindle/Kobo/Voyaga/Lenovo/Sony Kindle E-Book Tablet, Black High-Elasticity Versatile Hand Strap Lightweight Finger Grip Holder</v>
+        <v>Motorola G05 Verde (4GB RAM/128GB), 50MP, Celular Desbloqueado</v>
       </c>
       <c r="B126" t="str">
-        <v>N/A</v>
+        <v>2,199.00</v>
       </c>
       <c r="C126" t="str">
-        <v>N/A</v>
+        <v>$2,999.00</v>
       </c>
       <c r="D126" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51Zv4BOKlAL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Kobo Clara Colour | eReader | Pantalla antirreflectante a Color E Ink Kaleido™ 3 de 6" | Modo Oscuro | Audiolibros | Impermeable | Negro</v>
+        <v>Apple iPhone 15 Plus, 256GB, Rosa (Reacondicionado Premium)</v>
       </c>
       <c r="B127" t="str">
         <v>N/A</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Laurie (Flash Relatos)</v>
+        <v>Apple iPhone 14, 128GB, Blue - Unlocked (Renewed Premium)</v>
       </c>
       <c r="B128" t="str">
         <v>N/A</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Dracula (English Edition)</v>
+        <v>Samsung Galaxy S23 5G (128 GB, 8 GB) 6.1" AMOLED 2X, cámara 50MP, Global Volte, desbloqueado para todas las compañías, Negro Phantom (Reacondicionado)</v>
       </c>
       <c r="B129" t="str">
         <v>N/A</v>
@@ -2210,77 +2210,77 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>PUBAMALL Funda para Kindle (10ª generación - 2019), con la función Auto Sleep Wake, para Kindle 10th Gen 2019 Released (Azul Oscuro)</v>
+        <v>Samsung Galaxy A16 5G Serie A Teléfono celular, smartphone Android desbloqueado, gran visualización AMOLED, diseño duradero, carga súper rápida, almacenamiento ampliable, versión de EE. UU., 2025</v>
       </c>
       <c r="B130" t="str">
-        <v>N/A</v>
+        <v>4,524.96</v>
       </c>
       <c r="C130" t="str">
-        <v>N/A</v>
+        <v>$377.08</v>
       </c>
       <c r="D130" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71KGkQ+KOKL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Lector de Libros Electrónicos Portátil de 7 Pulgadas con Pantalla a Color de Resolución 800 * 480 Retroiluminación Incorporada con Cubierta de PU E-Reader Compatible con Tarjeta TF (Memoria 8G)</v>
+        <v>Apple iPhone XR, 128GB, Amarillo - Desbloqueado (Reacondicionado)</v>
       </c>
       <c r="B131" t="str">
-        <v>1,317.00</v>
+        <v>N/A</v>
       </c>
       <c r="C131" t="str">
-        <v>$133.67</v>
+        <v>N/A</v>
       </c>
       <c r="D131" t="str">
-        <v>https://m.media-amazon.com/images/I/61wmT594NmL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>1984 (English Edition)</v>
+        <v>OPPO A54 Negro 4GB 128GB Triple Cámara 5000mAh Carga Rápida</v>
       </c>
       <c r="B132" t="str">
-        <v>N/A</v>
+        <v>3,999.00</v>
       </c>
       <c r="C132" t="str">
-        <v>N/A</v>
+        <v>$333.25</v>
       </c>
       <c r="D132" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71nmz6Nxa0L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Moby Dick (English Edition)</v>
+        <v>Google Pixel 7 Pro - Teléfono Android 5G - Smartphone Desbloqueado con telefoto/Lente Gran Angular y batería de 24 Horas - 128 GB - Obsidiana</v>
       </c>
       <c r="B133" t="str">
-        <v>N/A</v>
+        <v>7,972.00</v>
       </c>
       <c r="C133" t="str">
-        <v>N/A</v>
+        <v>$9,999.00</v>
       </c>
       <c r="D133" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/615rI0PoyOL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Yunir EReader Pantalla Táctil de 5,76 Pulgadas ComfortLight, 16 GB de Almacenamiento, Opción de Modo Oscuro Audiolibros E Reader Amigable con la Vista</v>
+        <v>ATEVENSEE BLKE Mini Smartphone 3G Desbloqueado Telefono Mini Celular Android Telefonos celulares con 3.0" Pantalla HD 2GB ROM 16GB RAM 5MP Cámara Celular para niños WiFi/GPS/Face ID</v>
       </c>
       <c r="B134" t="str">
-        <v>2,179.00</v>
+        <v>899.99</v>
       </c>
       <c r="C134" t="str">
-        <v>$221.16</v>
+        <v>$91.34</v>
       </c>
       <c r="D134" t="str">
-        <v>https://m.media-amazon.com/images/I/61W5BNG2ajL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/617HcA2KfYL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>9 HÁBITOS JAPONESES: Que cambiarán tu vida</v>
+        <v>Apple iPhone 14, 128Gb, Azul para T Mobile Renovado</v>
       </c>
       <c r="B135" t="str">
         <v>N/A</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>CoBak - Funda para Kindle Paperwhite de 7 pulgadas 12ª generación 2024 y Colorsoft con correa de mano, soporte y carga inalámbrica compatible con MagSafe, para lectura diaria y protección de Kindle</v>
+        <v>Apple iPhone 14 Plus, 128GB, Midnight - Unlocked (Renewed Premium)</v>
       </c>
       <c r="B136" t="str">
         <v>N/A</v>
@@ -2308,35 +2308,35 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Funda de piel Amazon para Kindle Paperwhite, color amarillo miel (sólo sirve para Kindle Paperwhite 5ª, 6ª, y 7ª generaciones)</v>
+        <v>Hilitand Teléfono Inteligente Desbloqueado IP14 Pro para 11, 4G Dual SIM, Teléfonos Celulares 4GB 32GB, Pantalla HD de 6.1, Desbloqueo Facial, 6800mAh, 8MP 16MP, Dorado</v>
       </c>
       <c r="B137" t="str">
-        <v>699.00</v>
+        <v>1,160.00</v>
       </c>
       <c r="C137" t="str">
-        <v>$70.94</v>
+        <v>$117.74</v>
       </c>
       <c r="D137" t="str">
-        <v>https://m.media-amazon.com/images/I/91TyJ2-NxXL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61eCjIQ31zL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>La Divina Comedia : el infierno, el purgatorio y el paraíso</v>
+        <v>Apple iPhone 11 Pro Max, 256GB, Totalmente Desbloqueado - Verde Medianoche (Reacondicionado)</v>
       </c>
       <c r="B138" t="str">
-        <v>9.00</v>
+        <v>N/A</v>
       </c>
       <c r="C138" t="str">
-        <v>$29.00</v>
+        <v>N/A</v>
       </c>
       <c r="D138" t="str">
-        <v>https://m.media-amazon.com/images/I/41dELQkZ4uL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Deja de compararte con los demás: Cómo dejar de sentirte menos y empezar a valorarte de verdad</v>
+        <v>Apple iPhone 12 Pro Max, 512GB, Oro (Reacondicionado)</v>
       </c>
       <c r="B139" t="str">
         <v>N/A</v>
@@ -2350,91 +2350,91 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>vantisan Funda para Kindle Paperwhite Gen 2021, Kindle Case para 11th, Estuche para 6.8'' con la función Auto Sleep Wake, Funda con Soporte Plegable con Cielo Estrellado</v>
+        <v>Apple iPhone 15, 128GB, Verde - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B140" t="str">
-        <v>213.57</v>
+        <v>N/A</v>
       </c>
       <c r="C140" t="str">
-        <v>$439.00</v>
+        <v>N/A</v>
       </c>
       <c r="D140" t="str">
-        <v>https://m.media-amazon.com/images/I/81OhFmb7HIL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Cubierta de tela para la Kindle Paperwhite (11va generación, 2021)</v>
+        <v>SAMSUNG Celular Galaxy A35 5G Amarillo 6GB RAM 128GB, Nacional con Garantía</v>
       </c>
       <c r="B141" t="str">
-        <v>649.99</v>
+        <v>N/A</v>
       </c>
       <c r="C141" t="str">
-        <v>$65.97</v>
+        <v>N/A</v>
       </c>
       <c r="D141" t="str">
-        <v>https://m.media-amazon.com/images/I/619mrZUQXWL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Edgar Allan Poe: Novelas Completas</v>
+        <v>Google Pixel 6 - 5G Teléfono Android - Smartphone desbloqueado con lente ancha y ultraancha - 128 GB - color espuma de mar (Sorta Seafoam) (reacondicionado)</v>
       </c>
       <c r="B142" t="str">
-        <v>N/A</v>
+        <v>3,750.18</v>
       </c>
       <c r="C142" t="str">
-        <v>N/A</v>
+        <v>$4,981.05</v>
       </c>
       <c r="D142" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61hg+eIHUDL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>HGGWZWIF Funda para Kindle Paperwhite 12ª Generación 2024 (7 Pulgadas) &amp; Kindle Colorsoft Signature Edition (7 Pulgadas) con Reposo/Activación Automática (Morado)</v>
+        <v>Apple iPhone 13 Pro MAX, 128 GB, Grafito - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B143" t="str">
-        <v>323.10</v>
+        <v>N/A</v>
       </c>
       <c r="C143" t="str">
-        <v>$359.00</v>
+        <v>N/A</v>
       </c>
       <c r="D143" t="str">
-        <v>https://m.media-amazon.com/images/I/81O6ymPyj1L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Amazon Basics - Soporte portátil multiángulo para iPad Tablet, lector electrónico y teléfono, color negro</v>
+        <v>SAMSUNG Galaxy A34 6GB 128GB 5G Plata</v>
       </c>
       <c r="B144" t="str">
-        <v>180.00</v>
+        <v>7,299.00</v>
       </c>
       <c r="C144" t="str">
-        <v>$18.27</v>
+        <v>$608.25</v>
       </c>
       <c r="D144" t="str">
-        <v>https://m.media-amazon.com/images/I/61mxv1hiMUL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61CFjFpqO4L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Animal Farm (English Edition)</v>
+        <v>SAMSUNG Celular Galaxy S24 FE 5G Grafito 128GB, AI, Nacional con Garantía</v>
       </c>
       <c r="B145" t="str">
-        <v>N/A</v>
+        <v>9,599.00</v>
       </c>
       <c r="C145" t="str">
-        <v>N/A</v>
+        <v>$974.29</v>
       </c>
       <c r="D145" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/41EX9dTnlNL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Franz Kafka: Obras completas</v>
+        <v>Apple iPhone 11 (Renovado)</v>
       </c>
       <c r="B146" t="str">
         <v>N/A</v>
@@ -2448,21 +2448,21 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Guía de Organización y Limpieza para TDAH: Pasos Simples para Organizar tu Espacio, Aumentar la Productividad y Vencer la Procrastinación</v>
+        <v>Apple iPhone 12, 256GB, Green - Unlocked (Renewed Premium)</v>
       </c>
       <c r="B147" t="str">
-        <v>N/A</v>
+        <v>9,067.84</v>
       </c>
       <c r="C147" t="str">
-        <v>N/A</v>
+        <v>$755.65</v>
       </c>
       <c r="D147" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71r0E8xfKcL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Rebelion en la granja</v>
+        <v>Apple iPhone 12, 128GB, Blanco (Reacondicionado Premium)</v>
       </c>
       <c r="B148" t="str">
         <v>N/A</v>
@@ -2476,119 +2476,119 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>MXNUP Funda Kindle Paperwhite 11 Generacion - 2021, 6.8 Pulgadas Kindle Case con la Función Auto Sleep Wake, Funda con Soporte Plegable (Cielo Estrellado)</v>
+        <v>Apple iPhone 12, 64 GB, Morado - Desbloqueado (Premium renovado)</v>
       </c>
       <c r="B149" t="str">
-        <v>299.00</v>
+        <v>N/A</v>
       </c>
       <c r="C149" t="str">
-        <v>$439.00</v>
+        <v>N/A</v>
       </c>
       <c r="D149" t="str">
-        <v>https://m.media-amazon.com/images/I/81dKpQytgTL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Fintie Funda para Kindle Paperwhite de 7 Pulgadas (12ª generación, 2024) y Kindle Colorsoft Signature Edition - Funda Protectora Delgada y Ligera de Piel sintética con Reposo/activación automática</v>
+        <v>Apple iPhone SE de 3.ª generación, 64 GB, Starlight - Desbloqueado (Renovado De Primera Calidad)</v>
       </c>
       <c r="B150" t="str">
-        <v>229.00</v>
+        <v>N/A</v>
       </c>
       <c r="C150" t="str">
-        <v>$399.00</v>
+        <v>N/A</v>
       </c>
       <c r="D150" t="str">
-        <v>https://m.media-amazon.com/images/I/81FvVuB++jL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>La gramática del miedo y la retórica de la valentía: novel hubs 4u: La gramática del miedo y la retórica de la valentía: novelas imperdibles</v>
+        <v>nubia Smartphone Music 2 Multicolor 6.7” 120Hz, Triple bocina Sonido Estéreo 600%+, Cámara 50MP y 256GB+8GB RAM (4GB + 4GB Dinámica), Batería 5000mAh, Android 14</v>
       </c>
       <c r="B151" t="str">
-        <v>N/A</v>
+        <v>2,399.78</v>
       </c>
       <c r="C151" t="str">
-        <v>N/A</v>
+        <v>$2,999.00</v>
       </c>
       <c r="D151" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/81+fvwL7ZTL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>COME 2 Piezas Funda Compatible para Kindle Paperwhite, Compatible con Kindle Paperwhite 2021-11th Generation, 6.8" (Transparente), Ligero, Resistente a los Arañazos, Paperwhite Cubierta Protectora</v>
+        <v>Apple iPhone 11 Pro (restaurado)</v>
       </c>
       <c r="B152" t="str">
-        <v>350.55</v>
+        <v>N/A</v>
       </c>
       <c r="C152" t="str">
-        <v>$35.58</v>
+        <v>N/A</v>
       </c>
       <c r="D152" t="str">
-        <v>https://m.media-amazon.com/images/I/61HiDVH8QfL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Tablet 2 en 1 de 6 GB DDR4+64 GB, 10”, Android 13, funda para teclado/mouse/lápiz óptico, protector de pantalla, 5G/Wi-Fi 6, pantalla táctil HD, cámara doble 8 MP, pestaña de juegos, Bluetooth</v>
+        <v>Apple iPhone 13 Pro MAX (1 TB) - Color Plata</v>
       </c>
       <c r="B153" t="str">
-        <v>1,540.02</v>
+        <v>38,999.00</v>
       </c>
       <c r="C153" t="str">
-        <v>$1,651.59</v>
+        <v>$3,523.55</v>
       </c>
       <c r="D153" t="str">
-        <v>https://m.media-amazon.com/images/I/71L20oVowHL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61D84NtVgVL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Bigme inkNote Color + Eink E-Reader Tablet de visualización Kaleido 3 150 PPI de 10.3 Pulgadas para Lectura de Libros electrónicos y Tomar Notas</v>
+        <v>Apple iPhone 12 Pro MAX, 128GB, Pacific Blue - Fully Unlocked (Renewed)</v>
       </c>
       <c r="B154" t="str">
-        <v>N/A</v>
+        <v>10,308.71</v>
       </c>
       <c r="C154" t="str">
-        <v>N/A</v>
+        <v>$859.05</v>
       </c>
       <c r="D154" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/41SLL9Zws6L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Platón: Obras Completas | Filosofía Clásica, Diálogos y Sabiduría Atemporal del Gran Pensador Griego</v>
+        <v>iPhone 14 Pro MAX 128 GB Color Plata</v>
       </c>
       <c r="B155" t="str">
-        <v>N/A</v>
+        <v>28,999.00</v>
       </c>
       <c r="C155" t="str">
-        <v>N/A</v>
+        <v>$2,620.05</v>
       </c>
       <c r="D155" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51UnpqyKrEL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>TAZENI - Soporte de almohada para tablet Kindle con 2 bandejas para teléfono o tablet, soporte para Kindle y iPad de 4 a 13 pulgadas, para cama con tela suave Plus, accesorios de lectura, regalo para</v>
+        <v>Apple iPhone 13, 256 GB, Azul - Desbloqueado (Premium renovado)</v>
       </c>
       <c r="B156" t="str">
-        <v>1,198.89</v>
+        <v>N/A</v>
       </c>
       <c r="C156" t="str">
-        <v>$121.68</v>
+        <v>N/A</v>
       </c>
       <c r="D156" t="str">
-        <v>https://m.media-amazon.com/images/I/7189xQmLXhL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Baltasar del Alcázar: Obras completas</v>
+        <v>Apple iPhone 12 Mini, 64 GB, rojo - Cricket inalámbrico (renovado)</v>
       </c>
       <c r="B157" t="str">
         <v>N/A</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Poemas Sin Alma</v>
+        <v>Apple iPhone XS, 64GB, Gold - Fully Unlocked (Reacondicionado)</v>
       </c>
       <c r="B158" t="str">
         <v>N/A</v>
@@ -2616,77 +2616,77 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Todos los Cuentos de los Hermanos Grimm: Colección Completa de Fábulas, Magia y Aventuras para Todas las Edades</v>
+        <v>Apple iPhone XR, 64GB, Azul - Desbloqueado (Reacondicionado)</v>
       </c>
       <c r="B159" t="str">
-        <v>N/A</v>
+        <v>3,926.34</v>
       </c>
       <c r="C159" t="str">
-        <v>N/A</v>
+        <v>$5,174.58</v>
       </c>
       <c r="D159" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61FAlH3md+L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Cubierta de corcho para la Kindle Paperwhite (11va generación, 2021)</v>
+        <v>JETech Protector de Pantalla Cobertura Completo para iPhone 16e 2025, iPhone 14 6.1 Pulgadas, Mica de Cristal Vidrio Templado 9H Amigable para Funda, HD Transparente, 3 Unidades</v>
       </c>
       <c r="B160" t="str">
-        <v>899.99</v>
+        <v>199.00</v>
       </c>
       <c r="C160" t="str">
-        <v>$91.34</v>
+        <v>$238.00</v>
       </c>
       <c r="D160" t="str">
-        <v>https://m.media-amazon.com/images/I/51-MEU81nyL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/614zHczusEL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Suelta para sanar: El arte de dejar ir sin romperte</v>
+        <v>Apple iPhone 13 De 256 GB, Azul - T-Mobile (Renovado)</v>
       </c>
       <c r="B161" t="str">
-        <v>N/A</v>
+        <v>8,319.30</v>
       </c>
       <c r="C161" t="str">
-        <v>N/A</v>
+        <v>$693.27</v>
       </c>
       <c r="D161" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61hGhagsIoL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Comer Bien, Vivir Mejor</v>
+        <v>Apple iPhone 15 Plus (256 GB) - Negro (Reacondicionado Premium)</v>
       </c>
       <c r="B162" t="str">
-        <v>N/A</v>
+        <v>17,444.33</v>
       </c>
       <c r="C162" t="str">
-        <v>N/A</v>
+        <v>$1,453.69</v>
       </c>
       <c r="D162" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/31HUkXOepnL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Fintie Funda para Kindle Paperwhite de 6,8" (11.ª generación - 2021) y Kindle Paperwhite Signature Edition, Funda de sintética Ligera de Primera Calidad con función de Reposo/activación automática</v>
+        <v>Realme Celular C53 6 + 128 GB, Cámara de 50MP con IA, Negro</v>
       </c>
       <c r="B163" t="str">
-        <v>269.00</v>
+        <v>3,877.26</v>
       </c>
       <c r="C163" t="str">
-        <v>$299.00</v>
+        <v>$4,999.00</v>
       </c>
       <c r="D163" t="str">
-        <v>https://m.media-amazon.com/images/I/819Y9HPj0OL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/41O-J5D-ooL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>HoYiXi - Funda universal para Kindle Paperwhite/Colorsoft de 6 pulgadas, 6 pulgadas, 7 pulgadas, 7 pulgadas, compatible con Kindle/Kobo/Tolino/Sony, EReader de 6 pulgadas con funda protectora</v>
+        <v>Xiaomi Redmi 12 Dual Sim 128gb Midnight Black 4gb Ram</v>
       </c>
       <c r="B164" t="str">
         <v>N/A</v>
@@ -2700,35 +2700,35 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>USTIYA Funda para Kindle 11ª generacion 2022/2024 RS23CV C2V2L3 Case 6 Pulgadas Cover Cuero Protectora Piel PC+PU Función de Despertador (Rosa)</v>
+        <v>Apple iPhone 12 Pro, 128GB, grafito - Verizon (reacondicionado)</v>
       </c>
       <c r="B165" t="str">
-        <v>299.90</v>
+        <v>N/A</v>
       </c>
       <c r="C165" t="str">
-        <v>$30.43</v>
+        <v>N/A</v>
       </c>
       <c r="D165" t="str">
-        <v>https://m.media-amazon.com/images/I/81vLbFFg0bL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>KleverCase - Funda Universal para lectores de Libros electrónicos Compatible con e-Readers Inc. Kobo, Nook, Kindle Paperwhite (Inc 12th Gen &amp; Signature Edition), Kindle, storytel y Mucho más</v>
+        <v>Xiaomi Smartphone Redmi A3 4GB 128GB Negro Desbloqueado</v>
       </c>
       <c r="B166" t="str">
-        <v>N/A</v>
+        <v>1,899.00</v>
       </c>
       <c r="C166" t="str">
-        <v>N/A</v>
+        <v>$192.74</v>
       </c>
       <c r="D166" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51crvhw78wL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>HoYiXi - Funda universal para Kindle Paperwhite/Colorsoft 2024 de 7 pulgadas, compatible con Paperwhite Kobo Clara HD/Kobo Clara 2E eReader de 6.8 pulgadas, funda protectora con soporte plegable y</v>
+        <v>Apple iPhone 14, 512GB, (Product) Rojo - Desbloqueado (renovado Premium)</v>
       </c>
       <c r="B167" t="str">
         <v>N/A</v>
@@ -2742,35 +2742,35 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Sycelu K2 RF Télécommande Tourneur de Page pour Kindle Paperwhite Accessoires Lecture Kobo Surface Comics/Romans iPhone Tablettes Android Prise de Photos Caméra Enregistrement (Rosa)</v>
+        <v>Memoria USB Sandisk X40N 128 GB Compatible con Iphone &amp; Ipad (SDIX40N-128G-GN6NE)</v>
       </c>
       <c r="B168" t="str">
-        <v>514.14</v>
+        <v>N/A</v>
       </c>
       <c r="C168" t="str">
-        <v>$52.18</v>
+        <v>N/A</v>
       </c>
       <c r="D168" t="str">
-        <v>https://m.media-amazon.com/images/I/61J6W67QabL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>CoBak - Paquete de 3 protectores de visualización mate antirreflejos para Kindle Paperwhite de 7 pulgadas de 12ª generación 2024 y Colorsoft Signature Edition, para Kobo Aura 2, alta claridad</v>
+        <v>ECCRIS SumacLife Waterproof Pouch Sleeve Dry Bag for Amazon Fire Phone (AT&amp;T) (32gb/64gb) 2014 Smartphone</v>
       </c>
       <c r="B169" t="str">
-        <v>N/A</v>
+        <v>230.70</v>
       </c>
       <c r="C169" t="str">
-        <v>N/A</v>
+        <v>$23.41</v>
       </c>
       <c r="D169" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71WYvim2hGL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>El factor psicológico</v>
+        <v>Apple iPhone 13, 256GB, Media Noche (Reacondicionado Premium)</v>
       </c>
       <c r="B170" t="str">
         <v>N/A</v>
@@ -2784,287 +2784,287 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>4 PCS Vidrio Templado protectores de Pantalla para Kindle paperwhite de 7 pulgadas de 12ª generación 2024 y Colorsoft Signature Edition,Kobo Aura 2,visualización HD, prueba de aceite y arañazos</v>
+        <v>JETech Funda Silicona Magnética para iPhone 16 6.1 Pulgadas, Compatible con MagSafe, Tacto Suave Sedoso, Carcasa con Protección Lente Cámara Completa (Ultramarino)</v>
       </c>
       <c r="B171" t="str">
-        <v>339.00</v>
+        <v>299.00</v>
       </c>
       <c r="C171" t="str">
-        <v>$34.40</v>
+        <v>$30.34</v>
       </c>
       <c r="D171" t="str">
-        <v>https://m.media-amazon.com/images/I/71WhvyfY7yL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61ynQ+ZQJhL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Vinabilia - Funda de transporte de 6 a 7 pulgadas para Kindle Colorsoft Signature Edition y Kindle Paperwhite, funda protectora para Kindle Oasis/E-Reader de 6 pulgadas, ramo de flores</v>
+        <v>Apple iPhone 14, 128GB, Azul (Reacondicionado)</v>
       </c>
       <c r="B172" t="str">
-        <v>N/A</v>
+        <v>7,832.32</v>
       </c>
       <c r="C172" t="str">
-        <v>N/A</v>
+        <v>$8,264.67</v>
       </c>
       <c r="D172" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61bK6PMOC3L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>TOPOST Funda Compatible con Kindle 6 Pulgadas 11ª Generacion 2024/2022 All-New con Función Auto Sleep Wake (Negro)</v>
+        <v>CUBOT Celular KingkongX Pro, 5G Rugged Smartphone Android 14, 24GB(12+12) RAM 256GB ROM,10200mAh 6.72" HD+ Pantalla Phone,IP68/144Hz/NFC/Huella Dactilar/Face ID</v>
       </c>
       <c r="B173" t="str">
-        <v>229.00</v>
+        <v>5,399.99</v>
       </c>
       <c r="C173" t="str">
-        <v>$23.24</v>
+        <v>$6,399.99</v>
       </c>
       <c r="D173" t="str">
-        <v>https://m.media-amazon.com/images/I/81G5jTFePDL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/81sjNxnT7eL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Kind-le - Almohada de pie con soporte para teléfono celular, soporte de almohada ajustable para tablet con tazón de aperitivos, soporte estable y para teléfono para colocar tu teléfono,</v>
+        <v>KELIN 4G Teléfono móvil Plegable para Personas Mayores con botón SOS, Dual Pantalla, batería 1200 mAh, estación de Carga, Bluetooth, cámara, Radio FM y Linterna, Negro</v>
       </c>
       <c r="B174" t="str">
-        <v>387.19</v>
+        <v>1,099.00</v>
       </c>
       <c r="C174" t="str">
-        <v>$39.29</v>
+        <v>$111.54</v>
       </c>
       <c r="D174" t="str">
-        <v>https://m.media-amazon.com/images/I/61YFdXfxeQL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71QCQYEp4JL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Anillo de Desplazamiento Actualizado, Cambio de Página para la Aplicación Kindle, Cámara BT, Grabación de Vídeo Remota, Anillo de Desplazamiento de Carga (Talla 20)</v>
+        <v>Apple iPhone 11 Pro (restaurado)</v>
       </c>
       <c r="B175" t="str">
-        <v>385.00</v>
+        <v>N/A</v>
       </c>
       <c r="C175" t="str">
-        <v>$128.33</v>
+        <v>N/A</v>
       </c>
       <c r="D175" t="str">
-        <v>https://m.media-amazon.com/images/I/61Bcu9lmVAL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>ZJchao Lector de Libros de Pantalla Táctil de 5 Pulgadas 5.1 2+16GB Multifuncional LCD Display E-Reader para PDF EPUB3 MOBI</v>
+        <v>Grabar video directamente conecta y almacena video para iPhone compatible con iPhone 15 pro max/15 pro, iPhone 16 pro max/16 pro | Transferencia rápida de datos | M.2 PCIE NVME | SSD-NE-1000 (128 GB)</v>
       </c>
       <c r="B176" t="str">
-        <v>1,275.00</v>
+        <v>750.32</v>
       </c>
       <c r="C176" t="str">
-        <v>$129.41</v>
+        <v>$76.15</v>
       </c>
       <c r="D176" t="str">
-        <v>https://m.media-amazon.com/images/I/71JqAp2R+DL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/31k8c6bi23L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Genérico TikTok—Mando a Distancia para iPhone y Smartphones Android, Bluetooth para Aplicación Kindle, Foto y Video, Clicker con Correa de Muñeca Ajustable (Negro-TT)</v>
+        <v>Asuwish Handyhülle für iPhone 16 Hülle mit Band Folie Schutzfolie Kartenfach Klappbar Leder Blumen Geldbörse Ständer i Phone16 16hülle Handy Hüllen Schutzhülle Reißverschluss Cover Phone Case Blau</v>
       </c>
       <c r="B177" t="str">
-        <v>359.00</v>
+        <v>N/A</v>
       </c>
       <c r="C177" t="str">
-        <v>$36.43</v>
+        <v>N/A</v>
       </c>
       <c r="D177" t="str">
-        <v>https://m.media-amazon.com/images/I/41Pkx887D9L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>EMR Stylus para Bolígrafo Remarkable 2 con Borrador, Bolígrafos Digitales con Nivel de Presión 4096, Rechazo de Palma, para Wacom/Kindle Scribe/Galaxy Tab S6 Lite/ S7 FE/S9 Plus</v>
+        <v>Samsung Galaxy S22 (128 GB, 8 GB), pantalla de 6.2 pulgadas AMOLED 2X, cámara 4K de 50 MP (reacondicionado)</v>
       </c>
       <c r="B178" t="str">
-        <v>471.00</v>
+        <v>N/A</v>
       </c>
       <c r="C178" t="str">
-        <v>$47.80</v>
+        <v>N/A</v>
       </c>
       <c r="D178" t="str">
-        <v>https://m.media-amazon.com/images/I/7192lqVpYuL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Kepuch 2 Paquetes Vidrio Templado Protector de Pantalla para Kindle Paperwhite Signature Edition 12th 2024 / Kindle Paperwhite 12th / Kindle Colorsoft Signature Edition 1st 2024 7.0"</v>
+        <v>Motorola G04 S, 4Gb/256GB, Equipo Desbloqueado, Nacional - Azul</v>
       </c>
       <c r="B179" t="str">
-        <v>249.96</v>
+        <v>2,099.00</v>
       </c>
       <c r="C179" t="str">
-        <v>$25.37</v>
+        <v>$213.04</v>
       </c>
       <c r="D179" t="str">
-        <v>https://m.media-amazon.com/images/I/51d23QDYawL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51t0h6ArWRL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Paquete de 2 cómodas correas de mano para Kindle y tabletas, accesorios Kindle para leer en la cama, soporte de agarre seguro y ligero para Kindle Paperwhite/Kobo/Oasis/E-Book/Teléfono de 4.7-8</v>
+        <v>Apple iPhone 14 Plus, 256GB, Starlight - Unlocked (Renewed Premium)</v>
       </c>
       <c r="B180" t="str">
-        <v>416.64</v>
+        <v>N/A</v>
       </c>
       <c r="C180" t="str">
-        <v>$42.28</v>
+        <v>N/A</v>
       </c>
       <c r="D180" t="str">
-        <v>https://m.media-amazon.com/images/I/61-2xhf7p9L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>DINGGUAGUA - Funda translúcida para Kindle Paperwhite de 7 pulgadas, 12ª generación 2024 y Kindle Colorsoft Signature Edition (versión 2024), cubierta trasera de TPU suave, ligera, transparente</v>
+        <v>Apple iPhone SE de 3.ª generación, 64 GB, Rojo - Desbloqueado (Renovado De Primera Calidad)</v>
       </c>
       <c r="B181" t="str">
-        <v>N/A</v>
+        <v>4,887.53</v>
       </c>
       <c r="C181" t="str">
-        <v>N/A</v>
+        <v>$407.29</v>
       </c>
       <c r="D181" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51bF-6P+2DL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>TFY Correa de Seguridad con Soporte Sostenedor Correa de Cuero para Kindle Voyage, 6" / Kindle Paperwhite, 6" / Kindle Fire, 6" - Funciona con o sin Funda</v>
+        <v>Apple iPhone 13, 512GB, Midnight - Desbloqueado (renovado Premium)</v>
       </c>
       <c r="B182" t="str">
-        <v>340.00</v>
+        <v>12,386.49</v>
       </c>
       <c r="C182" t="str">
-        <v>$34.51</v>
+        <v>$1,032.20</v>
       </c>
       <c r="D182" t="str">
-        <v>https://m.media-amazon.com/images/I/71W69wZQG9L._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61VuVU94RnL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Funda para Kindle de 6 pulgadas (versión 11ª generación-2024), ultra transparente, suave, flexible, transparente, transparente, cubierta trasera de TPU con reposo/activación automática para Kindle</v>
+        <v>I14pro MAX Android 11 4G Smartphone Desbloqueado, Teléfonos Celulares Desbloqueados 6GB RAM 64GB ROM,Cámara de 8MP 16MP, Desbloqueo Facial, Batería GPS 4000mah(Verde Oscuro)</v>
       </c>
       <c r="B183" t="str">
-        <v>249.00</v>
+        <v>1,627.00</v>
       </c>
       <c r="C183" t="str">
-        <v>$25.27</v>
+        <v>$165.14</v>
       </c>
       <c r="D183" t="str">
-        <v>https://m.media-amazon.com/images/I/61ylMV279ML._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71KWBEFj2SL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Debtrop - Soporte de almohada Kindle con tazón para leer en la cama, compatible con dispositivos de 4.7 a 11 pulgadas, incluyendo Kindle, Tablet, iPads, varios modelos Android y más</v>
+        <v>Xiaomi Redmi Note 12 Pro 4G Smartphone, Pantalla AMOLED de 120Hz Lisa, Snapdragon 732G, cámara Ancha de 108MP, Carga Turbo de 67W (6+128GB Azul Glaciar)</v>
       </c>
       <c r="B184" t="str">
-        <v>1,288.00</v>
+        <v>N/A</v>
       </c>
       <c r="C184" t="str">
-        <v>$130.73</v>
+        <v>N/A</v>
       </c>
       <c r="D184" t="str">
-        <v>https://m.media-amazon.com/images/I/81uIxP8obIL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>G.F.L Funda Kindle (11.ª generación - 2021) para Kindle Paperwhite 2021, 6,8" (Transparente), Paquete de 2，Funda rígida Ultrafina para Kindle con amortiguación de TPU Antideslizante</v>
+        <v>Apple iPhone 12 Pro (512 GB) - Color oro</v>
       </c>
       <c r="B185" t="str">
-        <v>299.00</v>
+        <v>28,181.04</v>
       </c>
       <c r="C185" t="str">
-        <v>$30.34</v>
+        <v>$2,546.15</v>
       </c>
       <c r="D185" t="str">
-        <v>https://m.media-amazon.com/images/I/61A1SydYMDL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71cSV-RTBSL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>VRVKEGFFK Protector de Pantalla for Kindle Paperwhite, película Protectora Transparente de 12. ª generación, 2024, 7 Pulgadas, 2 uds.</v>
+        <v>Apple iPhone 11 Pro, 64 GB, Verde Medianoche - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B186" t="str">
-        <v>395.83</v>
+        <v>N/A</v>
       </c>
       <c r="C186" t="str">
-        <v>$40.17</v>
+        <v>N/A</v>
       </c>
       <c r="D186" t="str">
-        <v>https://m.media-amazon.com/images/I/61Jyzprpf9L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Bloque de carga USB 10 W Adaptador de corriente para tabletas Fire, Kindle Paperwhite/Colorsoft/Scribe/E-Readers/Oasis (cargador USB negro)</v>
+        <v>Motorola Edge | 2022 | Batería de 2 días | AT&amp;T GSM desbloqueado | Hecho para EE.UU. 6/128GB | Cámara de 50MP | Gris mineral (reacondicionado)</v>
       </c>
       <c r="B187" t="str">
-        <v>456.70</v>
+        <v>N/A</v>
       </c>
       <c r="C187" t="str">
-        <v>$46.35</v>
+        <v>N/A</v>
       </c>
       <c r="D187" t="str">
-        <v>https://m.media-amazon.com/images/I/51Hf5GAVgZL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>TOPOST Funda Compatible con Kindle Paperwhite 7 Pulgadas 12ª Generacion 2024 y Colorsoft Signature Edition All-New con Función Auto Sleep Wake (Negro)</v>
+        <v>Apple iPhone 14 Pro Max, 1TB, Gold - Unlocked (Renewed Premium)</v>
       </c>
       <c r="B188" t="str">
-        <v>279.00</v>
+        <v>N/A</v>
       </c>
       <c r="C188" t="str">
-        <v>$28.31</v>
+        <v>N/A</v>
       </c>
       <c r="D188" t="str">
-        <v>https://m.media-amazon.com/images/I/81xZSJ+R19L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Goshyda Control Remoto Page Turner para Kindle, Cámara con Forma de Gato, Grabación de Vídeo, Disparadores Remotos, Page Turner Clicker para Dispositivos Android y iOS</v>
+        <v>Apple iPhone X, 64GB, Space Gray - Fully unlocked- Desbloqueado(Reacondicionado)</v>
       </c>
       <c r="B189" t="str">
-        <v>329.00</v>
+        <v>N/A</v>
       </c>
       <c r="C189" t="str">
-        <v>$33.39</v>
+        <v>N/A</v>
       </c>
       <c r="D189" t="str">
-        <v>https://m.media-amazon.com/images/I/71FMNNDyOEL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>YVISKPQF 2 Pcs Funda Transparente 7" para Kindle Paperwhite 12ª Generación 2024 y Colorsoft Signature Edition,Funda de Silicona con 50 Pegatinas Decorativas (Transparente Carcasa)</v>
+        <v>nubia Z70 Ultra 5G Celular Snapdragon 8 Elite Cámaras Triples, 6.85" AMOLED Display, UDC Tech, Smartphone Desbloqueado con 144Hz, 80W Carga Rápida, IP68&amp;IP69 Waterproof con Garantía</v>
       </c>
       <c r="B190" t="str">
-        <v>368.00</v>
+        <v>19,999.00</v>
       </c>
       <c r="C190" t="str">
-        <v>$37.35</v>
+        <v>$2,029.89</v>
       </c>
       <c r="D190" t="str">
-        <v>https://m.media-amazon.com/images/I/611nqIz48pL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61rh4EDtEAL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>The Stitch That Unraveled Everything (English Edition)</v>
+        <v>Apple iPhone 11 (Renovado)</v>
       </c>
       <c r="B191" t="str">
         <v>N/A</v>
@@ -3078,105 +3078,105 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>DOXLIO Funda para Kindle Paperwhite 7 Pulgadas (12ª Generación 2024), Auto Sleep Wake. Compatible con Kindle Colorsoft Signature Edition (Rosa)</v>
+        <v>Asuwish - Funda para iPhone 16e/SE 2025/SE 4 con protector de visualización, correa cruzada, bloqueo RFID, tarjetero i Phone16e i16e 16 e SE4 4ª generación 16eCase para mujer, color morado oscuro</v>
       </c>
       <c r="B192" t="str">
-        <v>195.00</v>
+        <v>N/A</v>
       </c>
       <c r="C192" t="str">
-        <v>$19.79</v>
+        <v>N/A</v>
       </c>
       <c r="D192" t="str">
-        <v>https://m.media-amazon.com/images/I/81j2u8ubprL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Basesailor Cable Cargador Múltiple Rápido 60W,4 en 1 USB a USB C 1M,con USB A/Lightning/Type C para Kindle Fire Max 11 11th 2023,Paperwhite 11th 2021 12th 2022 2024,Samsung A03,Tab S6 S7,Carplay</v>
+        <v>FitBAG Jive - Funda a medida para Apple iPhone 16 Pro Max de 6.9 pulgadas, fabricada en Alemania | Funda de tela fina con forro de microfibra para limpieza de pantallas</v>
       </c>
       <c r="B193" t="str">
-        <v>179.10</v>
+        <v>N/A</v>
       </c>
       <c r="C193" t="str">
-        <v>$18.17</v>
+        <v>N/A</v>
       </c>
       <c r="D193" t="str">
-        <v>https://m.media-amazon.com/images/I/61Eqk+2wHGL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>HoYiXi - Funda universal compatible con Kindle Paperwhite/6 pulgadas totalmente nuevo Kindle 2022 y 2019/Kobo Clara HD/Kobo Clara 2E de cuero para PocketBook/Tolino/Sony E-Book de 6 a 6.8 pulgadas,</v>
+        <v>Apple iPhone 12 Mini 64GB Unlocked Smartphone - Purple (Reacondicionado Premium)</v>
       </c>
       <c r="B194" t="str">
-        <v>448.65</v>
+        <v>N/A</v>
       </c>
       <c r="C194" t="str">
-        <v>$45.53</v>
+        <v>N/A</v>
       </c>
       <c r="D194" t="str">
-        <v>https://m.media-amazon.com/images/I/61-U+suH3rL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>CoBak - Funda transparente para Kindle 11ª generación 2022 de 6 pulgadas</v>
+        <v>MOVE SPEED - Unidad flash de estado sólido de 128 GB, 400 MB/s de alta velocidad tipo C + USB 3.2 de doble puerto, unidad de pulgar compatible con iPhone 15, serie 16/teléfono</v>
       </c>
       <c r="B195" t="str">
-        <v>656.29</v>
+        <v>N/A</v>
       </c>
       <c r="C195" t="str">
-        <v>$66.61</v>
+        <v>N/A</v>
       </c>
       <c r="D195" t="str">
-        <v>https://m.media-amazon.com/images/I/71Q4vTd1Z6L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>KDD Soporte de Almohada para Tableta con Almacenamiento - Plegable Base Kindle iPad para Cama, Portamaletas y Escritorio - Stand Blando de Ángulo Ajustable con Portabolígrafos</v>
+        <v>Apple iPhone 12 Mini, 128GB, Rojo - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B196" t="str">
-        <v>459.99</v>
+        <v>N/A</v>
       </c>
       <c r="C196" t="str">
-        <v>$46.68</v>
+        <v>N/A</v>
       </c>
       <c r="D196" t="str">
-        <v>https://m.media-amazon.com/images/I/712Bym1hniL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Funda para Kindle Paperwhite (12.ª generación, 2024) y Kindle Paperwhite Signature Edition. Cuenta con la función de Auto Sleep/Wake y es Compatible con Todos los eReaders de 7". (Patrón morado)</v>
+        <v>Jectse I14 Promax Smartphone, 6.1 Pulgadas 4GB RAM 64GB ROM Teléfono Celular Desbloqueado con Cámara Trasera Frontal de 8MP 16MP, Teléfono Móvil MT6889 Ten Core 7000mAh para 11</v>
       </c>
       <c r="B197" t="str">
-        <v>599.00</v>
+        <v>871.00</v>
       </c>
       <c r="C197" t="str">
-        <v>$60.79</v>
+        <v>$88.40</v>
       </c>
       <c r="D197" t="str">
-        <v>https://m.media-amazon.com/images/I/71cOk8gbkNL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61QUt30MNJL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>TFY Funda Bolso Protector con Cierre de Cremallera, más Correa de Mano Soporte para Lectores de 6 Pulgadas,Gris</v>
+        <v>Apple iPhone 13, 512GB, verde - Desbloqueado (renovado Premium)</v>
       </c>
       <c r="B198" t="str">
-        <v>545.00</v>
+        <v>12,132.37</v>
       </c>
       <c r="C198" t="str">
-        <v>$55.31</v>
+        <v>$1,011.03</v>
       </c>
       <c r="D198" t="str">
-        <v>https://m.media-amazon.com/images/I/81zFp11ZTaL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61-r9zOKBCL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Correa de mano para Kindle Strapsicle | Paquete de 2 correas de mano para Kindle Paperwhite de 11.ª generación y Signature Paperwhite | Funda para lector electrónico compatible con Kindle Paperwhite 2022</v>
+        <v>Unihertz Atom L 6 GB + 128 GB, teléfono Inteligente Desbloqueado Resistente Android 11 4300 mAh batería 48 MP cámara</v>
       </c>
       <c r="B199" t="str">
         <v>N/A</v>
@@ -3190,49 +3190,49 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>ZIZEV Protector de Lector Electrónico, Exquisito Acabado en Cuero de Microfibra, Delicadamente Elaborado, Suave y Generoso, Estuche para Lector Electrónico Kindle Paperwhite (Recuerdo</v>
+        <v>Apple 2022 iPhone SE (256 GB) - Medianoche con AppleCare+ (2 Años)</v>
       </c>
       <c r="B200" t="str">
-        <v>424.81</v>
+        <v>N/A</v>
       </c>
       <c r="C200" t="str">
-        <v>$43.11</v>
+        <v>N/A</v>
       </c>
       <c r="D200" t="str">
-        <v>https://m.media-amazon.com/images/I/71C1nU59FJL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Funda de soporte para Kindle Paperwhite de 7 pulgadas de 12ª generación 2024 con correa de mano, compatible con iPhone MagSafe, para almohadillas para orejas de carga inalámbricas Samsung/Belkin/Anker</v>
+        <v>JSL JDTDC 128GB Apple MFi certificado iPhone-Photo-Stick-3 en 1 USB C Foto-Stick-para-iPhone-USB-Flash-Drive Memory-Stick JD Pulgar Drive iPhone Backup Stick para iPhone 16, 15, 14, 13, 12, iPad</v>
       </c>
       <c r="B201" t="str">
-        <v>499.00</v>
+        <v>1,158.44</v>
       </c>
       <c r="C201" t="str">
-        <v>$50.64</v>
+        <v>$117.58</v>
       </c>
       <c r="D201" t="str">
-        <v>https://m.media-amazon.com/images/I/71fcm4WfgBL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/711fNnD6UZL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Volteador de página con control remoto para Kindle Paperwhite Oasis Kobo eReaders, Kindle Clicker Page espátula Accesorios para iPhone, iPad, tabletas Android, novelas de lectura, grabación de video y</v>
+        <v>Samsung Galaxy S10E G970U 128GB GSM teléfono desbloqueado con cámara trasera de 12MP y 16MP (versión de EE. UU.) - azul</v>
       </c>
       <c r="B202" t="str">
-        <v>456.11</v>
+        <v>5,665.21</v>
       </c>
       <c r="C202" t="str">
-        <v>$46.29</v>
+        <v>$575.01</v>
       </c>
       <c r="D202" t="str">
-        <v>https://m.media-amazon.com/images/I/71AyufEY3rL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/41GZVOJ2MyL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>SMAYS - Amazon Kindle Paperwhite USB Cable - Micro USB</v>
+        <v>Apple iPhone 11 (Renovado), 64 GB, Blanco</v>
       </c>
       <c r="B203" t="str">
         <v>N/A</v>
@@ -3246,147 +3246,147 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Funda de tela bordada para Kindle Paperwhite, Kindle Basic, Kobo Clara 2E, Boox Palma, Nook Glowlight – Funda protectora de tela para tabletas y lectores electrónicos hecha a mano, color blanco y</v>
+        <v>Dpofirs I14pro Smartphones Desbloqueados, 4G Android 12 Teléfonos Celulares Pantalla HD de 6.7 Pulgadas, 4GB 128GB ROM Dual Sim gsm Teléfono Desbloqueado con Batería de Litio</v>
       </c>
       <c r="B204" t="str">
-        <v>607.69</v>
+        <v>2,145.79</v>
       </c>
       <c r="C204" t="str">
-        <v>$61.68</v>
+        <v>$357.63</v>
       </c>
       <c r="D204" t="str">
-        <v>https://m.media-amazon.com/images/I/71DfyqtGmvL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61x+Sq3EnUL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>CoBak - Funda con soporte para Kindle Paperwhite de 7 pulgadas de 12ª generación 2024 y Kindle Colorsoft con correa de mano, compatible con iPhone MagSafe, para almohadillas para orejas de carga</v>
+        <v>Apple Funda de silicón para el iPhone 16e – Blanco ​​​​​​​</v>
       </c>
       <c r="B205" t="str">
-        <v>N/A</v>
+        <v>899.00</v>
       </c>
       <c r="C205" t="str">
-        <v>N/A</v>
+        <v>$91.24</v>
       </c>
       <c r="D205" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51DE0yuQQ7L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>LEFUS Funda para Kindle Paperwhite 7 Pulgadas, 12ª Funda Kindle Paperwhite 2024 con la Función Auto Sleep Wake. (Invitación)</v>
+        <v>SAMSUNG- Celular Galaxy S24 Ultra, Smartphone AI de 256 GB, Android Desbloqueado, Cámara con Zoom de 50 MP, Batería de Larga duración</v>
       </c>
       <c r="B206" t="str">
-        <v>149.00</v>
+        <v>28,373.26</v>
       </c>
       <c r="C206" t="str">
-        <v>$15.12</v>
+        <v>$2,364.43</v>
       </c>
       <c r="D206" t="str">
-        <v>https://m.media-amazon.com/images/I/71pvavU6LYL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71ZoDT7a2wL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Sakenitly Funda para Kindle 11.ª Generación 2024/2022, 6 Pulgadas, Modelo n.º RS23CV/C2V2L3, Funda Protectora Plegable con Ranura para Tarjetas</v>
+        <v>Xiaomi Celular Poco X5 Pro 5G Black 6GB RAM 128GB ROM</v>
       </c>
       <c r="B207" t="str">
-        <v>299.00</v>
+        <v>N/A</v>
       </c>
       <c r="C207" t="str">
-        <v>$527.83</v>
+        <v>N/A</v>
       </c>
       <c r="D207" t="str">
-        <v>https://m.media-amazon.com/images/I/81ntQSCg-wL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>150 pegatinas de libros románticos para Kindle, paquete de pegatinas holográficas para libros de lectura Booktok, calcomanías de vinilo con purpurina para laptop, lectores de libros electrónicos,</v>
+        <v>SAMSUNG Celular Galaxy A25 5G Negro 6GB RAM 128GB, Nacional con Garantía</v>
       </c>
       <c r="B208" t="str">
-        <v>319.00</v>
+        <v>5,899.00</v>
       </c>
       <c r="C208" t="str">
-        <v>$32.37</v>
+        <v>$1,966.34</v>
       </c>
       <c r="D208" t="str">
-        <v>https://m.media-amazon.com/images/I/91cG3kOE7DL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51gM-p2VCjL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>HGGWZWIF Funda para Kindle Paperwhite 11 Generacion (Versión 2021, 6,8 Pulgadas) con Correa de Mano, Case con Reposo/Activación Automática para Model No.M2L3EK y M2L4EK e-Book Reader (Negro)</v>
+        <v>Huawei P30 Lite - Smartphone 6.15” FHD+, 24MP AI Ultra-wide Triple Camera, 128 GB / 4 GB, Desbloqueado - Negro Obsidiana</v>
       </c>
       <c r="B209" t="str">
-        <v>299.00</v>
+        <v>N/A</v>
       </c>
       <c r="C209" t="str">
-        <v>$30.34</v>
+        <v>N/A</v>
       </c>
       <c r="D209" t="str">
-        <v>https://m.media-amazon.com/images/I/81Pl4TYu4tL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Vaitasy Funda para Kindle Paperwhite 5 versión 2021 11ª generación de 6.8 Pulgadas de Piel sintética, diseño de follaje en Relieve, Carcasa Soporte rotación de 360 Grados - Rosa</v>
+        <v>Apple iPhone 14 Plus, 512GB, (Product) Red - Unlocked (Renewed Premium)</v>
       </c>
       <c r="B210" t="str">
-        <v>399.00</v>
+        <v>N/A</v>
       </c>
       <c r="C210" t="str">
-        <v>$40.49</v>
+        <v>N/A</v>
       </c>
       <c r="D210" t="str">
-        <v>https://m.media-amazon.com/images/I/81KQbEcwXEL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Funda estilo libro antiguo para Kindle, Sony, Pocketbook, Kobo 6" Ebook Reader</v>
+        <v>SAMSUNG Galaxy S20 FE 5G - Teléfono Celular Android Desbloqueado de fábrica, 128GB, Versión EE. UU. Smartphone con cámara de Grado Profesional, Space Zoom de 30X, Modo Nocturno, Color Nube Lavanda</v>
       </c>
       <c r="B211" t="str">
-        <v>778.52</v>
+        <v>16,004.61</v>
       </c>
       <c r="C211" t="str">
-        <v>$79.01</v>
+        <v>$1,624.46</v>
       </c>
       <c r="D211" t="str">
-        <v>https://m.media-amazon.com/images/I/61of8alkXCL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/7110SVYwOwL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Funda para Kindle Paperwhite 7 Pulgadas, Carcasa de TPU Suave, Protección de Pantalla, Función Automática de Activación/Suspensión, Gris</v>
+        <v>Apple iPhone X, 64GB, Silver - Fully unlocked- Desbloqueado(Reacondicionado)</v>
       </c>
       <c r="B212" t="str">
-        <v>349.99</v>
+        <v>N/A</v>
       </c>
       <c r="C212" t="str">
-        <v>$35.52</v>
+        <v>N/A</v>
       </c>
       <c r="D212" t="str">
-        <v>https://m.media-amazon.com/images/I/71eM59lOtkL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Kepuch Custer Funda para Kindle 2014 7th,Slim Smart Cover Fundas Carcasa Case Protectora de PU-Cuero para Kindle 2014 7th - Negro</v>
+        <v>Apple iPhone 12 Pro Max (256 GB) - Color oro</v>
       </c>
       <c r="B213" t="str">
-        <v>N/A</v>
+        <v>28,999.00</v>
       </c>
       <c r="C213" t="str">
-        <v>N/A</v>
+        <v>$2,620.05</v>
       </c>
       <c r="D213" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71fJ-gmBZtL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Trunkhouse: Volteador de páginas para Kindle, 2 clips, control remoto con cámara y video remoto, compatible con Kindle Paperwhite, Oasis, iPhone, iPad, negro</v>
+        <v>MOSDART - memoria USB 3.1 de 128 GB de velocidad rápida C y A Dual Flash, ExFAT con llavero e indicador LED, para iPhone 15 y 16, teléfono Android, iPad, MacBook, y otros portátiles, azul cielo</v>
       </c>
       <c r="B214" t="str">
         <v>N/A</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>yeacher Funda para Kindle Paperwhite de 7.ª, 6.ª y 5.ª generación (2012-2015) | Funda Protectora de TPU Suave con Bisel Elevado | Varios Colores | Envío rápido</v>
+        <v>Apple iPhone XS Max, 64GB, Space Gray - Fully Unlocked (Reacondicionado)</v>
       </c>
       <c r="B215" t="str">
         <v>N/A</v>
@@ -3414,21 +3414,21 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Pasador de Página con Control Remoto para for Kindle, Clicker de Volteador de Página Bluetooth para iOS/Android/tabletas Lectura de Novelas, Me Gusta Rápido, Cambio de Página de</v>
+        <v>motorola Moto G51 5G - Celular 128GB Memoria, 4 GB de RAM, Cámara 50MP, FHD+ 6.8 Pulgadas, Celular Desbloqueado Nacional, 1 Año de Garantía - Dorado</v>
       </c>
       <c r="B216" t="str">
-        <v>367.00</v>
+        <v>4,999.00</v>
       </c>
       <c r="C216" t="str">
-        <v>$37.25</v>
+        <v>$507.39</v>
       </c>
       <c r="D216" t="str">
-        <v>https://m.media-amazon.com/images/I/51kDzdzY-iL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61vaBE9x56L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>SupeDesk - Soporte de almohada para tablet, ajustable para regazo con tazón desmontable, se adapta a Kindle/teléfonos/tabletas de 4.7 a 13 pulgadas, ver videos, medios de transmisión, color rosa</v>
+        <v>Apple iPhone 11 (Renovado)</v>
       </c>
       <c r="B217" t="str">
         <v>N/A</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>TGYM - Soporte de almohada para Kindle, soporte para Kindle, soporte para Kindle y Kindle para leer en la cama. (Rosa)</v>
+        <v>Google Pixel 6 - Teléfono Android 5G - Smartphone Desbloqueado con Lente Ancha y ultraancha - 128GB - Sorta Seafoam</v>
       </c>
       <c r="B218" t="str">
         <v>N/A</v>
@@ -3456,21 +3456,21 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>LSGAE - Almohada de soporte para tablet, para sofá, cama y computadora, compatible con teléfono o tablet de 4 a 13 pulgadas, iPad, Kindle</v>
+        <v>Heayzoki Teléfono Celular Desbloqueado I13pro, Teléfono de 6.2 Pulgadas para Android 11.0 Smartphone 6GB 128GB 7000mAh 1440x3040 Frontal 8MP Trasero 16MP(Blanco)</v>
       </c>
       <c r="B219" t="str">
-        <v>N/A</v>
+        <v>1,469.00</v>
       </c>
       <c r="C219" t="str">
-        <v>N/A</v>
+        <v>$244.83</v>
       </c>
       <c r="D219" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/41S3gcvoEsL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>ORICO - Estación de carga de 120 W para múltiples dispositivos, organizador de carga USB de 10 puertos con cables, estación de carga multi USB compatible con iPad, tablet, Kindle, Airpods y teléfono</v>
+        <v>Funda de neopreno con cierre para teléfono celular, bolsillo de malla para iPhone 16 Plus 15 Plus iPhone 15 14 13 Pro Max 12 Pro Max Google Pixel 8/7 Pro 6 Pro OnePlus 12 11 Moto G Power 2022 (azul)</v>
       </c>
       <c r="B220" t="str">
         <v>N/A</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Zlinib - Soporte de almohada para Kindle, tazón mullido con soporte para Kindle, soporte de almohada para teléfono celular, soporte de cojín, altura ajustable, cojín de felpa (rosa)</v>
+        <v>Xiaomi - Celualr Poco M6 Pro 8GB RAM 256GB ROM (Purple)</v>
       </c>
       <c r="B221" t="str">
         <v>N/A</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>WunM Studio CE Funda para lector de libros electrónicos, funda para Kindle Oasis Slimshell ligera funda protectora para Amazon Kindle Oasis de 7 pulgadas 2017 2019 9Th 10Th Gen, negro, para Kindle Oasis 2 3</v>
+        <v>Bolígrafo USB C de 128 GB, memoria USB portátil con diseño de bolígrafo, tipo C + doble USB 3.0 de alta velocidad con escritura suave, compatible con smartphone, tablet, computadora iPhone 15 16</v>
       </c>
       <c r="B222" t="str">
         <v>N/A</v>
@@ -3512,273 +3512,273 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>PJUMVBC Funda Kindle Paperwhite para 12a Generación 2024 y Kindle Colorsoft Signature Edition, Kindle Case, con Función de Suspensión/Activación Automática, Correa de Mano y Soporte Plegable (Negro)</v>
+        <v>JETech Funda Silicona Magnética para iPhone 16 6.1 Pulgadas, Compatible con MagSafe, Tacto Suave Sedoso, Carcasa con Protección Lente Cámara Completa (Rosado)</v>
       </c>
       <c r="B223" t="str">
-        <v>N/A</v>
+        <v>299.00</v>
       </c>
       <c r="C223" t="str">
-        <v>N/A</v>
+        <v>$30.34</v>
       </c>
       <c r="D223" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/615l+BkjuEL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>MoKo Stand Case for Kindle Scribe (2024/2022 Released) - Premium Leather Trifold Stand Cover with Pen Holder, Auto Sleep/Wake for 10.2" Amazon Kindle Scribe 2024/2022, Agave Green</v>
+        <v>OPPO Reno12 5G Gris Mercurio 12GB+512GB, AI, Super Charge, 3 Años de Garantía + 6 Meses de Protección de Pantalla</v>
       </c>
       <c r="B224" t="str">
-        <v>N/A</v>
+        <v>10,727.78</v>
       </c>
       <c r="C224" t="str">
-        <v>N/A</v>
+        <v>$11,999.00</v>
       </c>
       <c r="D224" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/71Zcqhn0igL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>USTIYA Funda para Kindle 11 generacion 2022/2024 6 Pulgadas RS23CV C2V2L3 Case Silicona Carcasa Protectora Bumper TPU Translúcido Cover</v>
+        <v>CUBOT Celular KingkongX Pro, 5G Rugged Smartphone Android 14, 48GB(24+24) RAM 256GB ROM,10200mAh 6.72" HD+ Pantalla Phone,IP68/144Hz/NFC/Huella Dactilar/Face ID</v>
       </c>
       <c r="B225" t="str">
-        <v>N/A</v>
+        <v>6,899.99</v>
       </c>
       <c r="C225" t="str">
-        <v>N/A</v>
+        <v>$700.34</v>
       </c>
       <c r="D225" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/81XXjlr5lKL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>enoxboo Funda para Kindle de 11.ª Generación (Versión 2024/2022), Funda Inteligente de Piel Sintética, Funda de 6 Pulgadas para Kindle 11.º Lanzamiento en 2024</v>
+        <v>OnePlus 13 5G 16GB Ram 512GB ROM Cargador de 100W Snapdragon 8 Elite NFC 6.82 AMOLED 2K 120Hz Triple Cámara 50MP 6000mAh IP69/IP68 Dual SIM CPH2653 Versión Global Celular Blanco</v>
       </c>
       <c r="B226" t="str">
-        <v>N/A</v>
+        <v>18,999.00</v>
       </c>
       <c r="C226" t="str">
-        <v>N/A</v>
+        <v>$1,583.25</v>
       </c>
       <c r="D226" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51uYuF5nJIL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Kepuch 2 Paquetes Vidrio Templado Protector de Pantalla para Kindle Oasis 2019 10th/2017 9th</v>
+        <v>Bolígrafo USB C de 128 GB, memoria USB portátil con diseño de bolígrafo, tipo C + doble USB 3.0 de alta velocidad con escritura suave, compatible con smartphone, tablet, computadora iPhone 15 16</v>
       </c>
       <c r="B227" t="str">
-        <v>139.96</v>
+        <v>N/A</v>
       </c>
       <c r="C227" t="str">
-        <v>$249.96</v>
+        <v>N/A</v>
       </c>
       <c r="D227" t="str">
-        <v>https://m.media-amazon.com/images/I/61ng8JgwTqL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Vive Lo Que Realmente Importa</v>
+        <v>Funda de neopreno con cierre para teléfono celular iPhone 16 Plus 15 Plus iPhone 15 14 13 12 Pro Max Google Pixel 8/7 6 Pro OnePlus 13 12 Moto G Play 2024 (negro)</v>
       </c>
       <c r="B228" t="str">
-        <v>104.07</v>
+        <v>N/A</v>
       </c>
       <c r="C228" t="str">
-        <v>$175.00</v>
+        <v>N/A</v>
       </c>
       <c r="D228" t="str">
-        <v>https://m.media-amazon.com/images/I/81BYFTxqZwL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Kepuch Custer Funda para Kindle Paperwhite 12th 2024, Paperwhite Signature Edition 12th, Colorsoft Signature Edition 1st,Slim Smart Cover Fundas Carcasa Case Protectora de PU-Cuero - Rojo</v>
+        <v>Tensea - Protector de lente de cámara para iPhone 16/iPhone 16 Plus, protector de visualización de vidrio templado 9H, transparente HD, anillo individual de metal para iPhone 16/iPhone 16 Plus 2024</v>
       </c>
       <c r="B229" t="str">
-        <v>249.96</v>
+        <v>421.38</v>
       </c>
       <c r="C229" t="str">
-        <v>$25.37</v>
+        <v>$42.77</v>
       </c>
       <c r="D229" t="str">
-        <v>https://m.media-amazon.com/images/I/61y9p2Q5K0L._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71JGo1clJpL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Kepuch 2 Paquetes Vidrio Templado Protector de Pantalla para Kindle 12th 2024 / Kindle 11th 6.0"</v>
+        <v>Apple iPhone 13 Pro (1 TB) - Color Grafito</v>
       </c>
       <c r="B230" t="str">
-        <v>169.96</v>
+        <v>33,299.00</v>
       </c>
       <c r="C230" t="str">
-        <v>$17.25</v>
+        <v>$3,008.56</v>
       </c>
       <c r="D230" t="str">
-        <v>https://m.media-amazon.com/images/I/51oosfDJtPL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/41uhpZWR1XL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Funda para Kindle Paperwhite/Kindle Paperwhite Signature Edition (12ª Generación, Liberación 2024)/Kindle Colorsoft Signature Edition, Cubierta de 7 Pulgadas con Correa para Manos</v>
+        <v>MOVE SPEED - Unidades de estado sólido de 128 GB con puertos duales y diseño push-pull — 560 MB/s de velocidad de lectura, tipo C + unidad USB 3.2 SSD portátil para iPhone 15/16/Android/Mac</v>
       </c>
       <c r="B231" t="str">
-        <v>298.00</v>
+        <v>N/A</v>
       </c>
       <c r="C231" t="str">
-        <v>$573.73</v>
+        <v>N/A</v>
       </c>
       <c r="D231" t="str">
-        <v>https://m.media-amazon.com/images/I/71fZeV3bKFL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Kailaien - Funda para tablet de 7 a 9 pulgadas, bolsa para iPad Mini 6/5/4/3/2, Samsung Galaxy Tab A7 Lite 8.7 pulgadas, Tab A 8 pulgadas, Kindle 2022/10/9/8/7/6, eReader, con correa de hombro</v>
+        <v>Ubglcs i Phone 6s Plus 64gb Gris Espacial - Libre</v>
       </c>
       <c r="B232" t="str">
-        <v>640.08</v>
+        <v>N/A</v>
       </c>
       <c r="C232" t="str">
-        <v>$64.96</v>
+        <v>N/A</v>
       </c>
       <c r="D232" t="str">
-        <v>https://m.media-amazon.com/images/I/61oEFtwJBCL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>CoBak - Funda magnética para Kindle Paperwhite de 7 pulgadas, 12ª generación 2024 y Kindle Colorsoft, compatible con iPhone MagSafe, para almohadillas para orejas de carga inalámbricas</v>
+        <v>NIEGA - Teléfonos inteligentes desbloqueados de 6.7 pulgadas para Android 10.1</v>
       </c>
       <c r="B233" t="str">
-        <v>N/A</v>
+        <v>3,407.89</v>
       </c>
       <c r="C233" t="str">
-        <v>N/A</v>
+        <v>$345.90</v>
       </c>
       <c r="D233" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61NTjqCqXXL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>enoxboo Funda para Kindle Paperwhite (7.ª/6.ª/5.ª Generación - Lanzamiento en 2015/2013/2012 - Modelo: DP75SDI o EY21), 1 Cubierta Trasera de TPU Transparente Ultra Suave y Flexible y 1 Funda</v>
+        <v>SAMSUNG Galaxy S10+ Plus (128 GB, 8 GB) AMOLED de 6.4 pulgadas, Snapdragon 855, IP68 resistente al agua, Global 4G LTE (GSM + CDMA) desbloqueado (AT&amp;T, Verizon, T-Mobile, Metro) G975U (Prisma Blanco)</v>
       </c>
       <c r="B234" t="str">
-        <v>319.00</v>
+        <v>7,228.14</v>
       </c>
       <c r="C234" t="str">
-        <v>$32.37</v>
+        <v>$733.65</v>
       </c>
       <c r="D234" t="str">
-        <v>https://m.media-amazon.com/images/I/81rXQP9XMfL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51QcNhMe3KL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Youngme - Paquete de 5 protectores de visualización antirreflejos (mate) para Kindle Paperwhite de 6.8 pulgadas de lanzamiento de 11ª generación 2021, película protectora de PET de cobertura completa,</v>
+        <v>App-le iDiskk - Unidad flash para teléfono de 128 GB, iPhone 15 16, USB C, iPad Pro, Android, Samsung para iPhone 15/14/14 PRO/13/13 PRO/12 PRO/12 Mini/XR/X, almacenamiento USB para PC, MacBook</v>
       </c>
       <c r="B235" t="str">
-        <v>249.00</v>
+        <v>1,361.26</v>
       </c>
       <c r="C235" t="str">
-        <v>$25.27</v>
+        <v>$138.16</v>
       </c>
       <c r="D235" t="str">
-        <v>https://m.media-amazon.com/images/I/51X9ffAmiOL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61j20FKJ3cL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>HGGWZWIF Funda para Kindle Paperwhite 11 Generacion (Versión 2021, 6,8 Pulgadas, Model No.M2L3EK y M2L4EK) con Reposo/Activación Automática, Ligera PC+PU Funda con Soporte de Plegable(Negro)</v>
+        <v>Huawei P30 - Smartphone 6.1” FHD+, 40MP Leica Triple Camera, 128 GB / 6 GB, Desbloqueado Piedra de Luna</v>
       </c>
       <c r="B236" t="str">
-        <v>239.00</v>
+        <v>7,800.00</v>
       </c>
       <c r="C236" t="str">
-        <v>$24.25</v>
+        <v>$11,999.01</v>
       </c>
       <c r="D236" t="str">
-        <v>https://m.media-amazon.com/images/I/813TNKYJHwL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51JtGY2yooL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Flyorigin Funda para Kindle, Kindle Oasis, Paperwhite, Kobo eReader Libra, Clara / Estuche universal a prueba de golpes para Kindle</v>
+        <v>Disco de copia de seguridad USB C con certificación MFi de 128 GB para iPhone 16 15, almacenamiento de fotos y video, flash tipo C, para iPad, Android, PC, iPhone, memoria, unidad de pulgar para</v>
       </c>
       <c r="B237" t="str">
-        <v>349.00</v>
+        <v>916.29</v>
       </c>
       <c r="C237" t="str">
-        <v>$35.42</v>
+        <v>$93.00</v>
       </c>
       <c r="D237" t="str">
-        <v>https://m.media-amazon.com/images/I/71M3i-RS7XL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61Zqfve0GvL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>COCFOOKIW Funda para Kindle Paperwhite 10ª Generación 6" (Versiones 2018,Modelo PQ94WIF), PU Estuche Carcasa con Correa De Mano Función(Impresión de Caballo Loco)</v>
+        <v>Huness I15 Pro MAX Smartphone Unlocked Cell Phone,Battery 6800mAh 6.8 HD Screen Unlocked Phone,6+256GB Android 13 with 128GB Memory Card,Dual SIM/5G/Fingerprint Lock/Face ID (Natural Titanium, 6+256)</v>
       </c>
       <c r="B238" t="str">
-        <v>269.00</v>
+        <v>4,021.92</v>
       </c>
       <c r="C238" t="str">
-        <v>$27.30</v>
+        <v>$335.16</v>
       </c>
       <c r="D238" t="str">
-        <v>https://m.media-amazon.com/images/I/61O1zQ1COEL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71t+xg4pTOL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Funda transparente con funda y correa de mano para Kindle Paperwhite de 12ª generación 2024/Signature Edition funciona con volteador de páginas, funda plegable para Colorsoft Signature Edition de 1ª</v>
+        <v>MOSDART - Unidad flash USB C dual de 128 GB, velocidad de hasta 150 MB/S tipo C 3.1 con llavero e indicador LED, para iPhone 15 y 16, teléfono Android, iPad, MacBook, y portátiles, azul marino</v>
       </c>
       <c r="B239" t="str">
-        <v>N/A</v>
+        <v>570.38</v>
       </c>
       <c r="C239" t="str">
-        <v>N/A</v>
+        <v>$57.89</v>
       </c>
       <c r="D239" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/51glIMeObGL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Funda para 7" Kindle Paperwhite 12ª Generación y Edición Firmada (Lanzado en 2024) y 7" Kindle Colorsoft Edición Firmada,Patrones Pintados, Estuche con Automático Sueño/Vigilia y correa de mano (14)</v>
+        <v>Bolsa bandolera pequeña y espaciosa para teléfono celular, bolsa de hombro para iPhone 16, 15, 14, 13 Pro Max XR XS Max Google Pixel 8, 7, 6, Negro -, Small</v>
       </c>
       <c r="B240" t="str">
-        <v>299.00</v>
+        <v>N/A</v>
       </c>
       <c r="C240" t="str">
-        <v>$320.00</v>
+        <v>N/A</v>
       </c>
       <c r="D240" t="str">
-        <v>https://m.media-amazon.com/images/I/81tjf3zGe1L._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>E NET-CASE - Funda para Kindle Paperwhite de 12ª generación 2024 (7 pulgadas) y Kindle Colorsoft Signature Edition, carcasa trasera transparente, cubierta de piel sintética duradera con encendido</v>
+        <v>Xiaomi Smartphone C40 4GB 64GB Verde</v>
       </c>
       <c r="B241" t="str">
-        <v>519.33</v>
+        <v>3,187.33</v>
       </c>
       <c r="C241" t="str">
-        <v>$52.71</v>
+        <v>$3,499.00</v>
       </c>
       <c r="D241" t="str">
-        <v>https://m.media-amazon.com/images/I/71AlQ4rY+NL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61b7T7RdeQL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>MoKo - Funda acolchada bordada con margaritas de 6 a 7 pulgadas para Kindle 11/10/8ª generación, Kindle Paperwhite 11th/10th Gen, 7 pulgadas Kindle Colorsoft Signature Edition 2024, funda Kindle para</v>
+        <v>Apple iPhone 12 Pro MAX, 256 GB, Grafito - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B242" t="str">
         <v>N/A</v>
@@ -3792,35 +3792,35 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>CCOO Nuevo Funda para Kindle Paperwhite de 6.8 Pulgadas (11ª Generación 2021) - Estuche Protectora Premium con Ranura para Tarjeta y Correa de Mano, Soporte Plegable, Cierre Magnético</v>
+        <v>Xiaomi Redmi Note 11 Pro 5G 128GB 6GB Blanco</v>
       </c>
       <c r="B243" t="str">
-        <v>468.96</v>
+        <v>9,773.80</v>
       </c>
       <c r="C243" t="str">
-        <v>$47.59</v>
+        <v>$814.48</v>
       </c>
       <c r="D243" t="str">
-        <v>https://m.media-amazon.com/images/I/71pM0zCzwWL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/51Bo6vLqSPL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>USTIYA Funda para Kindle Paperwhite 11 generacion 6.8 Pulgadas 2021 (No para 12 generacion 7 Pulgadas 2024) Cover Cuero Protectora Piel PC+PU Función de Despertador (Don't Touch ME)</v>
+        <v>MOSDART - Unidad flash USB 3.1 tipo C de 128 GB, unidad flash exFAT de velocidad rápida, para iPhone 15 y 16, teléfono Android, iPad, MacBook, y otros portátiles, color morado</v>
       </c>
       <c r="B244" t="str">
-        <v>269.00</v>
+        <v>N/A</v>
       </c>
       <c r="C244" t="str">
-        <v>$27.30</v>
+        <v>N/A</v>
       </c>
       <c r="D244" t="str">
-        <v>https://m.media-amazon.com/images/I/61yPrnEvfDL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Volteador de página con control remoto para Kindle Paperwhite Oasis Kobo eReaders, clicker para iPad Tablets, leer novelas con visualización LCD de alimentación, verde Agave</v>
+        <v>MOVE SPEED Unidad de disco de pulgar de 128 GB, velocidad de lectura de 1000 MB/s, USB 3.2 Gen2+tipo C de doble interfaz SSD con funda de piel Memory Stick para iPhone 15, serie 16/MacBook/Android</v>
       </c>
       <c r="B245" t="str">
         <v>N/A</v>
@@ -3834,1505 +3834,175 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Idocolors - Funda bonita para Kindle Paperwhite de 7 pulgadas de 12ª generación 2024 de Kindle Paperwhite, funda protectora ultrafina y ligera con función de encendido y encendido automático, tulipán</v>
+        <v>Apple iPhone 11 Pro MAX, 256GB, Midnight Green - Desbloqueado (Reacondicionado Premium)</v>
       </c>
       <c r="B246" t="str">
-        <v>630.46</v>
+        <v>N/A</v>
       </c>
       <c r="C246" t="str">
-        <v>$63.99</v>
+        <v>N/A</v>
       </c>
       <c r="D246" t="str">
-        <v>https://m.media-amazon.com/images/I/81j02c4a7iL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Funda para Kindle Paperwhite de 6.8 pulgadas de 11ª generación 2021 (modelo NO. M2L3EK / M2L4EK), cubierta trasera de TPU ultra ligera transparente con encendido y apagado automático, gris oscuro</v>
+        <v>ROSPE Memoria USB de 128 GB para iPhone, Unidad Flash 4 en 1 para iOS/OTG Android/PC, con certificación MFi, Compatible con iPhone 5 hasta 16, USB 3.0 de Alta Velocidad, Color Azul</v>
       </c>
       <c r="B247" t="str">
-        <v>388.57</v>
+        <v>N/A</v>
       </c>
       <c r="C247" t="str">
-        <v>$39.43</v>
+        <v>N/A</v>
       </c>
       <c r="D247" t="str">
-        <v>https://m.media-amazon.com/images/I/51bZTGcNXYL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>enoxboo Funda de 7" para Kindle Colorsoft Signature Edition 2024 lanzada, Funda Protectora de Cuero PU, Funda para Kindle Paperwhite 12.ª Generación 2024</v>
+        <v>Apple - iPhone 11, 64 GB, Negro, operadores gsm (Reacondicionado Premium)</v>
       </c>
       <c r="B248" t="str">
-        <v>298.00</v>
+        <v>N/A</v>
       </c>
       <c r="C248" t="str">
-        <v>$30.24</v>
+        <v>N/A</v>
       </c>
       <c r="D248" t="str">
-        <v>https://m.media-amazon.com/images/I/71G0RUJ0UxL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>enoxboo Funda para Kindle de 11.ª Generación (Versión 2024/2022), Funda Inteligente de Piel Sintética, Función de Reposo y Activación Automáticas, Funda Protectora Prémium para Kindle Basic</v>
+        <v>I13pro MAX 6.1in Smartphone, 4GB Ram 128GB ROM, Tarjeta de Memoria Interna 64G, Puerto de Carga Tipo C Compartido con Puerto para Auriculares, Red 4G, Tres Ranuras para Tarjetas(Verde Oscuro)</v>
       </c>
       <c r="B249" t="str">
-        <v>299.90</v>
+        <v>2,154.45</v>
       </c>
       <c r="C249" t="str">
-        <v>$458.98</v>
+        <v>$218.67</v>
       </c>
       <c r="D249" t="str">
-        <v>https://m.media-amazon.com/images/I/81RcvNDNmiL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61XawTT4jaL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>Funda para Kindle Paperwhite de 7 pulgadas (12ª generación, 2024) con correa de mano, ultra transparente, suave, flexible, transparente, cubierta trasera de TPU transparente con encendido y apagado</v>
+        <v>256 GB con certificación App-le iPhone 15 16 iDiskk FLASHDRIVE 256 GB USB C Pulgar Drive Foto Stick para iPhone iPad Android Samsung Flash Drive para iPhone Fotos 16 15/14/13/12/12 pro/12 mini</v>
       </c>
       <c r="B250" t="str">
-        <v>399.00</v>
+        <v>1,825.86</v>
       </c>
       <c r="C250" t="str">
-        <v>$40.49</v>
+        <v>$185.32</v>
       </c>
       <c r="D250" t="str">
-        <v>https://m.media-amazon.com/images/I/61ikCRkqGlL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61y5yYoqIPL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>Yzlvigrous Funda para Kindle Paperwhite 12th Generation/Colorsoft Signature Edition 2024, Caparazón Trasero de TPU Suave con Correa de Mano, Cubierta de 7 Pulgadas con Función de Sueño/Estela</v>
+        <v>I14pro MAX 4G Teléfono Celular, 6.1in IPS HD Pantalla, 4GB RAM 64GB ROM, Doble Tarjeta Dual Standby, 16MP Trasera 8MP Frontal, 4000mAh Batería, Desbloqueo Facial Android 11 Smartphone(Oro)</v>
       </c>
       <c r="B251" t="str">
-        <v>329.00</v>
+        <v>2,212.71</v>
       </c>
       <c r="C251" t="str">
-        <v>$33.39</v>
+        <v>$224.59</v>
       </c>
       <c r="D251" t="str">
-        <v>https://m.media-amazon.com/images/I/61dH9lqj2wL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71qUS0-iuUL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>Dadanism - Funda acolchada bordada con margaritas para Kindle Paperwhite, Signature Edition, lectores electrónicos de 6 a 7 pulgadas, funda protectora para Oasis/Kobo, azul y blanco</v>
+        <v>Huawei P30 Pro 16.4 cm (6.47") 8 GB 128 GB Ranura híbrida Dual SIM 4G Negro 4200 mAh - Smartphone (16.4 cm (6.47"), 8 GB, 128 GB, 40 MP, Android 9.0, Negro)</v>
       </c>
       <c r="B252" t="str">
-        <v>N/A</v>
+        <v>8,900.00</v>
       </c>
       <c r="C252" t="str">
-        <v>N/A</v>
+        <v>$903.35</v>
       </c>
       <c r="D252" t="str">
-        <v>No disponible</v>
+        <v>https://m.media-amazon.com/images/I/61ZUogxYBOL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>Billionn Funda para Kindle Paperwhite 11ª generación E-Reader (6.8 Pulgadas, 2021) y Kindle Paperwhite Signature Edition, con Correa de Mano y Despertar/Dormir automáticamente, Constelación</v>
+        <v>fitBAG Rave - Funda de Tela con Forro Interior de Microfibra para Apple iPhone 13 / iPhone 13 Pro/iPhone 12 / iPhone 12 Pro | Funda con función de Limpieza | Fabricado en Alemania</v>
       </c>
       <c r="B253" t="str">
-        <v>399.99</v>
+        <v>N/A</v>
       </c>
       <c r="C253" t="str">
-        <v>$799.99</v>
+        <v>N/A</v>
       </c>
       <c r="D253" t="str">
-        <v>https://m.media-amazon.com/images/I/81rCYzHDVbL._AC_UL320_.jpg</v>
+        <v>No disponible</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>GSFY - Funda para Kindle Paperwhite de 7 pulgadas de 12ª generación 2024 y Kindle Colorsoft Signature Edition 2024, funda protectora de piel sintética, con ranuras para tarjetas, función atril, color</v>
+        <v>Heayzoki I13 Pro Teléfono Celular Desbloqueado, Teléfono Inteligente de 6,2 Pulgadas para Android 11,0, Desbloqueo Facial 6GB 128GB 7000mAh Batería Frontal 8MP Trasera</v>
       </c>
       <c r="B254" t="str">
-        <v>569.99</v>
+        <v>1,292.00</v>
       </c>
       <c r="C254" t="str">
-        <v>$57.85</v>
+        <v>$215.33</v>
       </c>
       <c r="D254" t="str">
-        <v>https://m.media-amazon.com/images/I/81cmMK9Fh-L._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61OSQ9nDWyL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>Sakenitly Funda para Kindle de 6 Pulgadas, 11.ª Generación, 2024/2022, Cubierta Trasera de TPU Ultratransparente, Suave y Ligera con Función de Encendido y Apagado Automáticos</v>
+        <v>Tbest Desbloqueado Reacondicionado, I 13 Pro Teléfono Desbloqueado Android, Ip13 Pro 6.1 Pulgadas HD Sn Smartphone 3Gb 32Gb Dual Sim Teléfono Celular con Cámara HD Frontal Y</v>
       </c>
       <c r="B255" t="str">
-        <v>288.00</v>
+        <v>1,478.00</v>
       </c>
       <c r="C255" t="str">
-        <v>$488.00</v>
+        <v>$246.33</v>
       </c>
       <c r="D255" t="str">
-        <v>https://m.media-amazon.com/images/I/61Du2MurzOL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/61oOainLa0L._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>Sakenitly Funda para Kindle Paperwhite de 5.ª/6.ª/7.ª Generación (Modelo: EY21 y DP75SDI, Versión 2012/2013/2015), con Smart Auto Sleep/Wake Funda Ligera de PU a Prueba de Salpicaduras</v>
+        <v>Hilitand - Teléfono Inteligente Desbloqueado IP14 Pro Max para Android 11, Teléfono Celular Desbloqueado de 6.1 FHD Face ID 4GB 64GB 128GB Expansión, SIM Dual, 4000mAh, Cámara Dual de 8MP 16MP(Blanco)</v>
       </c>
       <c r="B256" t="str">
-        <v>289.00</v>
+        <v>1,871.50</v>
       </c>
       <c r="C256" t="str">
-        <v>$29.33</v>
+        <v>$189.95</v>
       </c>
       <c r="D256" t="str">
-        <v>https://m.media-amazon.com/images/I/81lwk+OcamL._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/71sWVYmpkhL._AC_UL320_.jpg</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>Funda universal para libros electrónicos con visualización de 6 a 6.8 pulgadas o de 7.5 a 5.1 pulgadas de tamaño. Funciona con Kobo, Nook, Kindle, Kindle Paperwhite, Sony, storytel y más.</v>
+        <v>Desbloqueado U Landvo Ip12 Pro+ 6.26In Pantalla Reconocimiento Facial Tarjeta Dual Dual Standby Smart Phone 1+8Gb Negro (Verde)</v>
       </c>
       <c r="B257" t="str">
-        <v>N/A</v>
+        <v>1,747.00</v>
       </c>
       <c r="C257" t="str">
-        <v>N/A</v>
+        <v>$291.16</v>
       </c>
       <c r="D257" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="str">
-        <v>Strapsicle - Embrague de silicona para Kindle y lectores electrónicos, bolsa multiusos para teléfono, portafolios y llaves, se adapta a Paperwhite de 6.8 pulgadas a 7 pulgadas, Kindle de 6.8 pulgadas</v>
-      </c>
-      <c r="B258" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C258" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D258" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="str">
-        <v>enoxboo Funda de 7 Pulgadas para Kindle Paperwhite 12.ª Generación 2024 y Kindle Colorsoft Signature Edition y Kindle Paperwhite Signature Edition 12.ª Generación, Funda para Kindle Paperwhite</v>
-      </c>
-      <c r="B259" t="str">
-        <v>329.00</v>
-      </c>
-      <c r="C259" t="str">
-        <v>$504.88</v>
-      </c>
-      <c r="D259" t="str">
-        <v>https://m.media-amazon.com/images/I/71814jrCiJL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="str">
-        <v>Funda para 7" Kindle Colorsoft Signature Edition/Kindle Paperwhite (12ª Generación, Liberación 2024)/Kindle Paperwhite Signature Edition 12th, Cubierta con Función de Estela de Sueño Automático</v>
-      </c>
-      <c r="B260" t="str">
-        <v>298.00</v>
-      </c>
-      <c r="C260" t="str">
-        <v>$573.73</v>
-      </c>
-      <c r="D260" t="str">
-        <v>https://m.media-amazon.com/images/I/813ZsKG69gL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="str">
-        <v>TiMOVO - Funda Protectora para Kindle Paperwhite y Kindle Colorsoft Signature Edition, Funda Protectora para Kindle E-Reader/Kindle Oasis, Azul Pavo Real</v>
-      </c>
-      <c r="B261" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C261" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D261" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="str">
-        <v>WALNEW - Funda magnética para Kindle Paperwhite de 7 pulgadas de 12ª generación 2024 y Kindle Colorsoft Signature Edition, compatible con iPhone MagSafe, para almohadillas de carga inalámbricas</v>
-      </c>
-      <c r="B262" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C262" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D262" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="str">
-        <v>enoxboo Funda Transparente para Kindle de 6" de 11.ª Generación, Lanzada en 2024/2022, con Funda de Tela y Cubierta Trasera Flexible de TPU Suave Antiamarilleo, Ultradelgada y Transparente</v>
-      </c>
-      <c r="B263" t="str">
-        <v>329.00</v>
-      </c>
-      <c r="C263" t="str">
-        <v>$550.78</v>
-      </c>
-      <c r="D263" t="str">
-        <v>https://m.media-amazon.com/images/I/81zG-86Ui8L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="str">
-        <v>Sakenitly Funda para 7 Pulgadas Kindle Paperwhite 12th Gen 2024 y Kindle Colorsoft Signature Edition, Slim Light Shell Cover con Característica Automática de Atención/sueño</v>
-      </c>
-      <c r="B264" t="str">
-        <v>319.00</v>
-      </c>
-      <c r="C264" t="str">
-        <v>$458.98</v>
-      </c>
-      <c r="D264" t="str">
-        <v>https://m.media-amazon.com/images/I/81glJUzHtOL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="str">
-        <v>Sakenitly Funda para Kindle 11 Generation (liberación de 2024 y 2022), Modelo: RS23CV o C2V2L3, Cubierta Inteligente de Cuero PU, Estuche de 6 Pulgadas para Kindle 11th 2024 Release</v>
-      </c>
-      <c r="B265" t="str">
-        <v>298.00</v>
-      </c>
-      <c r="C265" t="str">
-        <v>$413.09</v>
-      </c>
-      <c r="D265" t="str">
-        <v>https://m.media-amazon.com/images/I/71DjEmMBEWL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="str">
-        <v>Funda transparente para Kindle de 10ª generación 2019, delgada y suave cubierta trasera de TPU para Kindle de 10ª generación 2019 de 6 pulgadas</v>
-      </c>
-      <c r="B266" t="str">
-        <v>291.38</v>
-      </c>
-      <c r="C266" t="str">
-        <v>$29.57</v>
-      </c>
-      <c r="D266" t="str">
-        <v>https://m.media-amazon.com/images/I/51JjLxG569L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="str">
-        <v>Funda para Kindle Paperwhite 12.ª generación 2024/Kindle Colorsoft Signature Edition/Kindle Paperwhite Signature Edition 12.ª generación 2024, Caso de Transparencia Acrílica con Auto Wake/Sleep (4)</v>
-      </c>
-      <c r="B267" t="str">
-        <v>369.00</v>
-      </c>
-      <c r="C267" t="str">
-        <v>$498.00</v>
-      </c>
-      <c r="D267" t="str">
-        <v>https://m.media-amazon.com/images/I/61dIuVY+dbL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="str">
-        <v>DATAFY - espátula de páginas para Kindle Paperwhite Oasis Control remoto Clicker para Kindle App para iPad Kindle Accesorios (rosa)</v>
-      </c>
-      <c r="B268" t="str">
-        <v>526.37</v>
-      </c>
-      <c r="C268" t="str">
-        <v>$53.42</v>
-      </c>
-      <c r="D268" t="str">
-        <v>https://m.media-amazon.com/images/I/61s1-P8p7lL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="str">
-        <v>Famavala - Carcasa para Amazon Kindle Paperwhite/Signature Edition (12ª generación) y Kindle Colorsoft Signature Edition (1ª generación), compatible con Nook/Boox (Blossoms)</v>
-      </c>
-      <c r="B269" t="str">
-        <v>590.37</v>
-      </c>
-      <c r="C269" t="str">
-        <v>$59.92</v>
-      </c>
-      <c r="D269" t="str">
-        <v>https://m.media-amazon.com/images/I/81vXewmc0xL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="str">
-        <v>MoKo - Funda para tablet Amazon Kindle Fire HD 10 y 10 Plus de 10.1 pulgadas (versión 13ª/11ª generación, versión 2023/2021), funda plegable delgada con función de encendido y apagado automático, oro</v>
-      </c>
-      <c r="B270" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C270" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D270" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="str">
-        <v>TiMOVO - Funda Protectora para Tablet de 6 a 7 Pulgadas para Kindle Paperwhite y Kindle Colorsoft Signature Edition, Funda Protectora con Bolsillo para Kindle E-Reader/Kindle Oasis, Flor Verde</v>
-      </c>
-      <c r="B271" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C271" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D271" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="str">
-        <v>Sakenitly Funda para el Lanzamiento de Kindle Paperwhite 10th Generation 2018, Cubierta de 6 Pulgadas con Función de Estela de Sueño Automático, Modelo No. PQ94WIF</v>
-      </c>
-      <c r="B272" t="str">
-        <v>288.00</v>
-      </c>
-      <c r="C272" t="str">
-        <v>$458.98</v>
-      </c>
-      <c r="D272" t="str">
-        <v>https://m.media-amazon.com/images/I/81lwk+OcamL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="str">
-        <v>KleverCase - Funda universal para lectores de libros electrónicos Compatible con todas las marcas de lectores electrónicos, incluyendo Kobo, Nook, Kindle Paperwhite (inc 12ª generación y edición de</v>
-      </c>
-      <c r="B273" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C273" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D273" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="str">
-        <v>Sakenitly Caso De Protección para 6 Pulgadas Kindle 11th Gen Lanzado En 2022 (Modelo C2V2L3) - Cubierta Duradera con Estela/sueño Automático Y Correa De Mano</v>
-      </c>
-      <c r="B274" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C274" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D274" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="str">
-        <v>COCFOOKIW Funda para 6" Kindle Paperwhite 10.ª Generation(Versiones 2018，Modelo PQ94WIF)- Caso de Pie con Automático Despertar/Dormir, Estuche con Adsorción Magnética y Correa de Mano Función</v>
-      </c>
-      <c r="B275" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C275" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D275" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="str">
-        <v>Sakenitly Funda para Kindle de 6 Pulgadas de 11.ª Generación de 2024/2022, Funda Protectora con Ranura para Tarjetas y Correa para la Mano, Funda Protectora Plegable, Modelo n.º RS23CV/C2V2L3</v>
-      </c>
-      <c r="B276" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C276" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D276" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="str">
-        <v>enoxboo Funda para Kindle Paperwhite de 12.ª Generación (versión 2024) y Kindle Colorsoft Signature Edition (Versión 2024), Funda de 7" con Función de Suspensión y Activación Automáticas</v>
-      </c>
-      <c r="B277" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C277" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D277" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="str">
-        <v>Funda para tablet de 6 a 7 pulgadas para Amazon Fire 7/Kindle Paperwhite de 6 a 6.8 pulgadas, Kindle Paperwhite Signature/Kindle Paperwhite Kids/Kindle 11th 2022/Kindle Kids,Kobo Clara 2E bolsa de</v>
-      </c>
-      <c r="B278" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C278" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D278" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="str">
-        <v>Kepuch 2 Paquetes Vidrio Templado Protector de Pantalla para Kindle Scribe 2024/Kindle Scribe 2022 10.2"</v>
-      </c>
-      <c r="B279" t="str">
-        <v>169.96</v>
-      </c>
-      <c r="C279" t="str">
-        <v>$17.25</v>
-      </c>
-      <c r="D279" t="str">
-        <v>https://m.media-amazon.com/images/I/513ubNI-E5L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="str">
-        <v>Kepuch 2 Paquetes Vidrio Templado Protector de Pantalla para Kindle Paperwhite Signature Edition 12th 2024 / Kindle Paperwhite 12th / Kindle Colorsoft Signature Edition 1st 2024 7.0"</v>
-      </c>
-      <c r="B280" t="str">
-        <v>249.96</v>
-      </c>
-      <c r="C280" t="str">
-        <v>$25.37</v>
-      </c>
-      <c r="D280" t="str">
-        <v>https://m.media-amazon.com/images/I/51d23QDYawL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="str">
-        <v>Kepuch Custer Funda para Kindle Paperwhite 12th 2024, Paperwhite Signature Edition 12th, Colorsoft Signature Edition 1st,Slim Smart Cover Fundas Carcasa Case Protectora de PU-Cuero - Azul</v>
-      </c>
-      <c r="B281" t="str">
-        <v>249.96</v>
-      </c>
-      <c r="C281" t="str">
-        <v>$25.37</v>
-      </c>
-      <c r="D281" t="str">
-        <v>https://m.media-amazon.com/images/I/61HA5jLwm3L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="str">
-        <v>Kepuch 2 Paquetes 280 Cola Gruesa Sin Burbujas Aire Protector de Pantalla para Kindle Paperwhite Signature Edition 12th 2024 / Kindle Colorsoft Signature Edition 1st 2024 / Kindle Paperwhite 12th 7.0"</v>
-      </c>
-      <c r="B282" t="str">
-        <v>169.96</v>
-      </c>
-      <c r="C282" t="str">
-        <v>$17.25</v>
-      </c>
-      <c r="D282" t="str">
-        <v>https://m.media-amazon.com/images/I/518WuVn8N3L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="str">
-        <v>Funda para tablet de 6 a 7 pulgadas para Amazon Fire 7/Kindle Paperwhite de 6 a 6.8 pulgadas, Kindle Paperwhite Signature/Kindle Paperwhite Kids/Kindle 11th 2022/Kindle Kids,Kobo Clara 2E bolsa de</v>
-      </c>
-      <c r="B283" t="str">
-        <v>428.62</v>
-      </c>
-      <c r="C283" t="str">
-        <v>$43.50</v>
-      </c>
-      <c r="D283" t="str">
-        <v>https://m.media-amazon.com/images/I/81npB9IypML._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="str">
-        <v>enoxboo Funda para Kindle Paperwhite de 12.ª Generación (versión 2024) y Kindle Colorsoft Signature Edition (Versión 2024), Funda de 7" con Función de Suspensión y Activación Automáticas</v>
-      </c>
-      <c r="B284" t="str">
-        <v>319.00</v>
-      </c>
-      <c r="C284" t="str">
-        <v>$550.78</v>
-      </c>
-      <c r="D284" t="str">
-        <v>https://m.media-amazon.com/images/I/81He4e77jTL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="str">
-        <v>enoxboo Funda Personalizada para la 11ª Generación del Kindle 2022, Modelo C2V2L3, Funda Duradera con Función de Despertador-Sueño Automático/Graba Tus Recuerdos</v>
-      </c>
-      <c r="B285" t="str">
-        <v>359.00</v>
-      </c>
-      <c r="C285" t="str">
-        <v>$36.43</v>
-      </c>
-      <c r="D285" t="str">
-        <v>https://m.media-amazon.com/images/I/51fGEC72-ML._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="str">
-        <v>enoxboo Funda Ultradelgada y Liviana para Kindle Paperwhite 12.ª Generación 2024 y Kindle Colorsoft Signature Edition 2024, Cubierta de 7" con Función de Encendido y Apagado Automático</v>
-      </c>
-      <c r="B286" t="str">
-        <v>329.00</v>
-      </c>
-      <c r="C286" t="str">
-        <v>$596.68</v>
-      </c>
-      <c r="D286" t="str">
-        <v>https://m.media-amazon.com/images/I/819INjr3wTL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="str">
-        <v>[2 clips] Remoto para volteador de páginas Kindle Paperwhite Accesorios para Kindle y iPad y Tablet Clip Clicker Recargable</v>
-      </c>
-      <c r="B287" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C287" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D287" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="str">
-        <v>Cargador hecho para todas las tabletas Kindle Fire, Kindle E-Reader, Paperwhite, Oasis, Colorsoft, Scribe, Voyage, Kindle Kids Edition con cable USB tipo C y micro USB de 6.6 pies (listado UL)</v>
-      </c>
-      <c r="B288" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C288" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D288" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="str">
-        <v>Sakenitly Funda para Kindle Paperwhite de 6,8 Pulgadas de 11.ª Generación y Signature Edition (Versión 2021), Bolsa Protectora y Funda Transparente Ligera</v>
-      </c>
-      <c r="B289" t="str">
-        <v>290.48</v>
-      </c>
-      <c r="C289" t="str">
-        <v>$29.48</v>
-      </c>
-      <c r="D289" t="str">
-        <v>https://m.media-amazon.com/images/I/715OxPtgMPL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="str">
-        <v>Soporte Estuche para 7" Kindle Paperwhite 12ª Generación 2024 y 7" Kindle Colorsoft Edición Firmada, Funda con Automático Sueño/Vigilia y Ranura para Tarjetas y función de Correa de Mano (7)</v>
-      </c>
-      <c r="B290" t="str">
-        <v>242.00</v>
-      </c>
-      <c r="C290" t="str">
-        <v>$299.00</v>
-      </c>
-      <c r="D290" t="str">
-        <v>https://m.media-amazon.com/images/I/51IfnfdGEGL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="str">
-        <v>CCOO Funda Kindle Paperwhite - Estuche Protectora Delgada de Cuero Inteligente con Dormir/Despertar Automática para Kindle Paperwhite 10ª Generation 2018 Release, Solo Adecuada para el Modelo PQ94WIF</v>
-      </c>
-      <c r="B291" t="str">
-        <v>285.80</v>
-      </c>
-      <c r="C291" t="str">
-        <v>$329.00</v>
-      </c>
-      <c r="D291" t="str">
-        <v>https://m.media-amazon.com/images/I/71mx5BSVd3L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="str">
-        <v>enoxboo Funda para Kindle de 6 Pulgadas de 11.ª Generación de 2024/2022, Funda Protectora con Función de Reposo/Activación Automática, Ranura para Tarjetas y Correa para la Mano</v>
-      </c>
-      <c r="B292" t="str">
-        <v>349.00</v>
-      </c>
-      <c r="C292" t="str">
-        <v>$573.73</v>
-      </c>
-      <c r="D292" t="str">
-        <v>https://m.media-amazon.com/images/I/71hTRipztCL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="str">
-        <v>E NET-CASE - Funda protectora para Kindle Scribe (versión 2024/2022) - Funda protectora ligera y rígida con función de encendido automático para Kindle Scribe de 10.2 pulgadas 2024/2022 con soporte</v>
-      </c>
-      <c r="B293" t="str">
-        <v>852.92</v>
-      </c>
-      <c r="C293" t="str">
-        <v>$86.57</v>
-      </c>
-      <c r="D293" t="str">
-        <v>https://m.media-amazon.com/images/I/81nse08D3SL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="str">
-        <v>Funda de piel y resistente al agua para Kindle Oasis, color rojo</v>
-      </c>
-      <c r="B294" t="str">
-        <v>799.99</v>
-      </c>
-      <c r="C294" t="str">
-        <v>$81.19</v>
-      </c>
-      <c r="D294" t="str">
-        <v>https://m.media-amazon.com/images/I/81IDfFfX+gL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="str">
-        <v>Funda para Kindle de 6 pulgadas (versión 11ª generación-2024), ultra transparente, suave, flexible, transparente, transparente, cubierta trasera de TPU con reposo/activación automática para Kindle</v>
-      </c>
-      <c r="B295" t="str">
-        <v>399.00</v>
-      </c>
-      <c r="C295" t="str">
-        <v>$40.49</v>
-      </c>
-      <c r="D295" t="str">
-        <v>https://m.media-amazon.com/images/I/61AeOkcV9aL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="str">
-        <v>El Archivo Prohibido del Vaticano: Verdades enterradas, rituales malditos y el legado oculto que podría cambiar la historia de la humanidad</v>
-      </c>
-      <c r="B296" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C296" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D296" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="str">
-        <v>Lector de Libros Electrónicos 1+8GB Pantalla Táctil LCD a Color de 5 Pulgadas WiFi FM Lector de Libros Digitales Portátil</v>
-      </c>
-      <c r="B297" t="str">
-        <v>1,453.00</v>
-      </c>
-      <c r="C297" t="str">
-        <v>$147.47</v>
-      </c>
-      <c r="D297" t="str">
-        <v>https://m.media-amazon.com/images/I/61rsuZRwX-L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="str">
-        <v>Funda ultra transparente para Kindle Vista 11 (6 pulgadas), suave, flexible, cubierta trasera de TPU con reposo/activación automática</v>
-      </c>
-      <c r="B298" t="str">
-        <v>399.00</v>
-      </c>
-      <c r="C298" t="str">
-        <v>$40.49</v>
-      </c>
-      <c r="D298" t="str">
-        <v>https://m.media-amazon.com/images/I/61PAwQvcC2L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="str">
-        <v>GVTECH Soporte Universal para Tableta, Ajustable Base de Soporte de Escritorio Compatible con el Nuevo iPad Mini Air, Pro 9.7 10.5 12.9, Kindle, Samsung, Lenovo Tab Otras tabletas, Plateado</v>
-      </c>
-      <c r="B299" t="str">
-        <v>121.72</v>
-      </c>
-      <c r="C299" t="str">
-        <v>$179.00</v>
-      </c>
-      <c r="D299" t="str">
-        <v>https://m.media-amazon.com/images/I/81a6cR6Y1oL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="str">
-        <v>ANGO - Estuche Super Suave para Kinlde de 6" para E-Reader/E-Book/Smartphone, Mini Funda Protectora a Prueba de Golpes para Kindle de hasta 6" (Gris)</v>
-      </c>
-      <c r="B300" t="str">
-        <v>159.00</v>
-      </c>
-      <c r="C300" t="str">
-        <v>$16.13</v>
-      </c>
-      <c r="D300" t="str">
-        <v>https://m.media-amazon.com/images/I/51miYti0bVL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="str">
-        <v>Funda delgada para tablet Amazon Kindle Fire HD 10 y 10 Plus (versión 13ª/11ª generación 2023/2021), piel sintética con soporte triple, parte trasera transparente, doble ángulo, carcasa con encendido</v>
-      </c>
-      <c r="B301" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C301" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D301" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="str">
-        <v>Soporte Funda para 7" Kindle Paperwhite 12ª Generación 2024 y 7" Kindle Colorsoft Edición Firmada, Estuche con Automático Sueño/Vigilia y Ranura para tarjetas y función de correa de mano (15)</v>
-      </c>
-      <c r="B302" t="str">
-        <v>299.00</v>
-      </c>
-      <c r="C302" t="str">
-        <v>$30.34</v>
-      </c>
-      <c r="D302" t="str">
-        <v>https://m.media-amazon.com/images/I/712GNE5-eEL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="str">
-        <v>Sakenitly Funda para Kindle Paperwhite 12th Generation 2024 y Kindle Colorsoft Signature Edition - Manga de Cubierta con Ranura para Tarjetas y Correa de Mano, Cubierta Protectora Plegable</v>
-      </c>
-      <c r="B303" t="str">
-        <v>329.00</v>
-      </c>
-      <c r="C303" t="str">
-        <v>$499.00</v>
-      </c>
-      <c r="D303" t="str">
-        <v>https://m.media-amazon.com/images/I/71hTRipztCL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="str">
-        <v>CoBak - Funda ligera con soporte para Kindle Paperwhite de 7 pulgadas de 12ª generación 2024 y Kindle Colorsoft con correa para la mano derecha, compatible con iPhone MagSafe, para almohadillas para</v>
-      </c>
-      <c r="B304" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C304" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D304" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="str">
-        <v>Funda para Kindle [10ª generación 2019] – con correa de mano (no compatible con Kindle Paperwhite o Kindle Oasis)</v>
-      </c>
-      <c r="B305" t="str">
-        <v>284.54</v>
-      </c>
-      <c r="C305" t="str">
-        <v>$28.88</v>
-      </c>
-      <c r="D305" t="str">
-        <v>https://m.media-amazon.com/images/I/71orbkmf52L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="str">
-        <v>UMUBUHOMS - Funda para Kindle Oasis con doble mano y soporte para Kindle Oasis de 7 pulgadas (10ª generación, 2019 y 9ª generación, 2017) Auto Sleep &amp; Wake/cierre magnético (azul oscuro)</v>
-      </c>
-      <c r="B306" t="str">
-        <v>1,037.61</v>
-      </c>
-      <c r="C306" t="str">
-        <v>$105.31</v>
-      </c>
-      <c r="D306" t="str">
-        <v>https://m.media-amazon.com/images/I/71-JXLEC-BL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="str">
-        <v>Cameron Sino - Batería para Amazon DP75SDI, Kindle Paperwhite 2013, Kindle Paperwhite 6 2015, Kindle Paperwhite 6 Gen, Kindle Touch 3G 6 pulgadas 2013, Kindle Touch 6 pulgadas 2013</v>
-      </c>
-      <c r="B307" t="str">
-        <v>289.64</v>
-      </c>
-      <c r="C307" t="str">
-        <v>$29.39</v>
-      </c>
-      <c r="D307" t="str">
-        <v>https://m.media-amazon.com/images/I/41x6MCSb7KL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="str">
-        <v>Kefotic - Soporte para tablet de cuello de cisne para lectura Kindle en la cama con mando a distancia para volteador de páginas, computadora manos libres, soporte de brazo perezoso para accesorios</v>
-      </c>
-      <c r="B308" t="str">
-        <v>1,257.47</v>
-      </c>
-      <c r="C308" t="str">
-        <v>$127.63</v>
-      </c>
-      <c r="D308" t="str">
-        <v>https://m.media-amazon.com/images/I/61+dqCLLNbL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="str">
-        <v>Joyppy 152 - Pegatinas de libro de romance oscuro para Kindle, adulto, lectura de libros picantes, accesorios de libros, regalos</v>
-      </c>
-      <c r="B309" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C309" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D309" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="str">
-        <v>Funda de TPU suave para Kindle Paperwhite de 7ª generación de 2015 solo para Kindle Paperwhite de 7ª generación – Auto Sleep and Wake– Funda inteligente de piel sintética de alta calidad con correa de mano para Kindle Paperwhite 2015 de 6 pulgadas (Sky)</v>
-      </c>
-      <c r="B310" t="str">
-        <v>399.00</v>
-      </c>
-      <c r="C310" t="str">
-        <v>$40.49</v>
-      </c>
-      <c r="D310" t="str">
-        <v>https://m.media-amazon.com/images/I/81dmUzBXGZL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="str">
-        <v>CoBak - Funda con soporte para Kindle Paperwhite de 7 pulgadas de 12ª generación 2024 y Kindle Colorsoft con correa de mano, compatible con iPhone MagSafe, para almohadillas para orejas de carga</v>
-      </c>
-      <c r="B311" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C311" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D311" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="str">
-        <v>Funda de diamante para Kindle transparente de 10ª generación (2019), no amarillea, protección militar contra caídas pero no voluminosa, funda rígida para Kindle de 10ª generación 2019</v>
-      </c>
-      <c r="B312" t="str">
-        <v>210.00</v>
-      </c>
-      <c r="C312" t="str">
-        <v>$21.31</v>
-      </c>
-      <c r="D312" t="str">
-        <v>https://m.media-amazon.com/images/I/41BkVDogVgL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="str">
-        <v>Cameron Sino - Batería para Amazon Kindle Paperwhite 10th Generat, Kindle Paperwhite 4 10th Gener, Kindle Paperwhite 4 2018, PQ94WIF</v>
-      </c>
-      <c r="B313" t="str">
-        <v>472.45</v>
-      </c>
-      <c r="C313" t="str">
-        <v>$47.95</v>
-      </c>
-      <c r="D313" t="str">
-        <v>https://m.media-amazon.com/images/I/51UKKaRzfsL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="str">
-        <v>Funda transparente y flexible para Kindle Paperwhite de 6 pulgadas (10ª generación-2018) - Ultra suaves, reposo/activación automática</v>
-      </c>
-      <c r="B314" t="str">
-        <v>399.00</v>
-      </c>
-      <c r="C314" t="str">
-        <v>$40.49</v>
-      </c>
-      <c r="D314" t="str">
-        <v>https://m.media-amazon.com/images/I/61AeOkcV9aL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="str">
-        <v>Funda magnética inteligente para Amazon Kindle Paperwhite 4 para Kindle 2018 de 10ª generación, funda de tela para Kindle (rosa)</v>
-      </c>
-      <c r="B315" t="str">
-        <v>304.44</v>
-      </c>
-      <c r="C315" t="str">
-        <v>$30.90</v>
-      </c>
-      <c r="D315" t="str">
-        <v>https://m.media-amazon.com/images/I/51sRC2JVMdL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="str">
-        <v>3 dijes para Kindle, color rosa con lazo compatible con Kindle con puerto de carga tipo C, regalo coquette para amantes de libros, lectores, hombres, mujeres, profesores, estudiantes, accesorios para</v>
-      </c>
-      <c r="B316" t="str">
-        <v>199.00</v>
-      </c>
-      <c r="C316" t="str">
-        <v>$20.19</v>
-      </c>
-      <c r="D316" t="str">
-        <v>https://m.media-amazon.com/images/I/51bK4tLyovL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="str">
-        <v>HoYiXi - Funda universal para lector de libros electrónicos de 6 a 6.8 pulgadas, compatible con Kindle Paperwhite/6 pulgadas, nuevo Kindle 2022 y 2019/Kobo Clara HD/Kobo Clara 2E, funda protectora</v>
-      </c>
-      <c r="B317" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C317" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D317" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="str">
-        <v>COCFOOKIW Funda para 6" Kindle 11ª Generación 2022/2024, Modelo: RS23CV/C2V2L3，Cáscara Blanda Transparente Blanda Estuche con Función de Reposo/Activación Automática (1)</v>
-      </c>
-      <c r="B318" t="str">
-        <v>299.00</v>
-      </c>
-      <c r="C318" t="str">
-        <v>$30.34</v>
-      </c>
-      <c r="D318" t="str">
-        <v>https://m.media-amazon.com/images/I/61Du2MurzOL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="str">
-        <v>La biblioteca de la medianoche</v>
-      </c>
-      <c r="B319" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C319" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D319" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="str">
-        <v>HGWALP - Funda Universal para lectores electrónicos de 6 Pulgadas, Funda de Piel con Correa de Mano, Compatible con Todos los Libros de composición de</v>
-      </c>
-      <c r="B320" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C320" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D320" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="str">
-        <v>TOPOST Funda Compatible con Kindle Paperwhite 6.8 Pulgadas 11ª Generacion 2021 y Signature Edition All-New con Función Auto Sleep Wake (Negro)</v>
-      </c>
-      <c r="B321" t="str">
-        <v>229.00</v>
-      </c>
-      <c r="C321" t="str">
-        <v>$23.24</v>
-      </c>
-      <c r="D321" t="str">
-        <v>https://m.media-amazon.com/images/I/81bSwHXywXL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="str">
-        <v>enoxboo Funda de 6'' para Kindle de 11.ª generación, Lanzamiento en 2022/2024, Modelo: RS23CV o C2V2L3, Funda con Correa para la Mano y Función de Encendido y Apagado Automático</v>
-      </c>
-      <c r="B322" t="str">
-        <v>319.00</v>
-      </c>
-      <c r="C322" t="str">
-        <v>$413.09</v>
-      </c>
-      <c r="D322" t="str">
-        <v>https://m.media-amazon.com/images/I/81CCOCJN3XL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="str">
-        <v>Dadanism - Funda acolchada de 6 a 7 pulgadas para Kindle Colorsoft Signature Edition y Kindle Paperwhite, funda protectora para transporte K-indle/K-indle Oasis/Kobo de 6 pulgadas, color frambuesa</v>
-      </c>
-      <c r="B323" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C323" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D323" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="str">
-        <v>Moguri 60 pegatinas de libro rosa para Kindle, pegatinas para Kindle, pegatinas aesthetic Kindle, regalos de libros para mujeres, niñas, amantes de los libros, regalos para adultos</v>
-      </c>
-      <c r="B324" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C324" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D324" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="str">
-        <v>QPHWHFQ Funda para Kindle Paperwhite 11th Generation 2021, Kindle Case para 11th de 6.8 Pulgadas, con la Función Auto Sleep Wake, Funda con Soporte Plegable, con Magnetismo(Cielo Estrellado)</v>
-      </c>
-      <c r="B325" t="str">
-        <v>299.90</v>
-      </c>
-      <c r="C325" t="str">
-        <v>$469.00</v>
-      </c>
-      <c r="D325" t="str">
-        <v>https://m.media-amazon.com/images/I/71XGTMoiYiL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="str">
-        <v>Funda para Kindle de 11ª generación de 6 pulgadas, funda protectora de gel TPU de ajuste delgado para Kindle 2022 (rosa)</v>
-      </c>
-      <c r="B326" t="str">
-        <v>299.00</v>
-      </c>
-      <c r="C326" t="str">
-        <v>$30.34</v>
-      </c>
-      <c r="D326" t="str">
-        <v>https://m.media-amazon.com/images/I/51Uf-8dUUoL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="str">
-        <v>Dadanism - Funda acolchada de 6 a 7 pulgadas para Kindle Colorsoft Signature Edition y Kindle Paperwhite, funda protectora de transporte para Kindle Kindle Oasis/Kobo de 6 pulgadas, color verde Matcha</v>
-      </c>
-      <c r="B327" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C327" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D327" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="str">
-        <v>Chineestyle Funda de diamante para Kindle Oasis 3/2 (2019/2017), no amarillea, protección militar contra caídas pero no voluminosa, funda rígida delgada para Kindle Oasis de 3 generación 2019</v>
-      </c>
-      <c r="B328" t="str">
-        <v>299.00</v>
-      </c>
-      <c r="C328" t="str">
-        <v>$30.34</v>
-      </c>
-      <c r="D328" t="str">
-        <v>https://m.media-amazon.com/images/I/414k8Sig57L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="str">
-        <v>LISEN Soporte para Tablet 360° Metálico Base para iPad Stand de Escritoric Ajustable Soporte para Celular and Kindle, Compatible con iPhone/iPad-Mini Pro Air/Gataxy Tab/Lenovo Tab/Kindle Accesorios</v>
-      </c>
-      <c r="B329" t="str">
-        <v>329.00</v>
-      </c>
-      <c r="C329" t="str">
-        <v>$499.00</v>
-      </c>
-      <c r="D329" t="str">
-        <v>https://m.media-amazon.com/images/I/81yppBGNuvL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="str">
-        <v>enoxboo Funda para Kindle Paperwhite y Kindle Colorsoft Signature Edition 2024 - Funda de PU Ligera y Delgada con Función de Suspensión/Activación Automática, 7 Pulgadas</v>
-      </c>
-      <c r="B330" t="str">
-        <v>329.00</v>
-      </c>
-      <c r="C330" t="str">
-        <v>$458.98</v>
-      </c>
-      <c r="D330" t="str">
-        <v>https://m.media-amazon.com/images/I/51iR148vFEL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="str">
-        <v>Kepuch Custer Funda para Kindle Paperwhite 12th 2024, Paperwhite Signature Edition 12th, Colorsoft Signature Edition 1st,Slim Smart Cover Fundas Carcasa Case Protectora de PU-Cuero - Negro</v>
-      </c>
-      <c r="B331" t="str">
-        <v>249.96</v>
-      </c>
-      <c r="C331" t="str">
-        <v>$25.37</v>
-      </c>
-      <c r="D331" t="str">
-        <v>https://m.media-amazon.com/images/I/6182F+d1LNL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="str">
-        <v>ZCGOINGTECH Paquete de 2 Mica Protectores de Pantalla Transparentes HD para Kindle Paperwhite 12.a Generación 2024 y Kindle Colorsoft Signature Edition (7 Pulgadas)</v>
-      </c>
-      <c r="B332" t="str">
-        <v>229.00</v>
-      </c>
-      <c r="C332" t="str">
-        <v>$23.24</v>
-      </c>
-      <c r="D332" t="str">
-        <v>https://m.media-amazon.com/images/I/41bLM3l-XaL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="str">
-        <v>CS - Batería de repuesto para Amazon D01400, Kindle Fire</v>
-      </c>
-      <c r="B333" t="str">
-        <v>584.82</v>
-      </c>
-      <c r="C333" t="str">
-        <v>$59.35</v>
-      </c>
-      <c r="D333" t="str">
-        <v>https://m.media-amazon.com/images/I/716FKufb7xL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="str">
-        <v>CS - Batería de repuesto para Amazon Kindle Voyage, NM460GZ</v>
-      </c>
-      <c r="B334" t="str">
-        <v>422.65</v>
-      </c>
-      <c r="C334" t="str">
-        <v>$42.89</v>
-      </c>
-      <c r="D334" t="str">
-        <v>https://m.media-amazon.com/images/I/519c9WahazL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="str">
-        <v>Funda magnética inteligente para Amazon Kindle Paperwhite 4 para Kindle 2018 de 10ª generación, funda de tela para Kindle (rosa)</v>
-      </c>
-      <c r="B335" t="str">
-        <v>304.44</v>
-      </c>
-      <c r="C335" t="str">
-        <v>$30.90</v>
-      </c>
-      <c r="D335" t="str">
-        <v>https://m.media-amazon.com/images/I/51sRC2JVMdL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="str">
-        <v>3 dijes para Kindle, color rosa con lazo compatible con Kindle con puerto de carga tipo C, regalo coquette para amantes de libros, lectores, hombres, mujeres, profesores, estudiantes, accesorios para</v>
-      </c>
-      <c r="B336" t="str">
-        <v>199.00</v>
-      </c>
-      <c r="C336" t="str">
-        <v>$20.19</v>
-      </c>
-      <c r="D336" t="str">
-        <v>https://m.media-amazon.com/images/I/51bK4tLyovL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="str">
-        <v>HoYiXi - Funda universal para lector de libros electrónicos de 6 a 6.8 pulgadas, compatible con Kindle Paperwhite/6 pulgadas, nuevo Kindle 2022 y 2019/Kobo Clara HD/Kobo Clara 2E, funda protectora</v>
-      </c>
-      <c r="B337" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C337" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D337" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="str">
-        <v>COCFOOKIW Funda para 6" Kindle 11ª Generación 2022/2024, Modelo: RS23CV/C2V2L3，Cáscara Blanda Transparente Blanda Estuche con Función de Reposo/Activación Automática (1)</v>
-      </c>
-      <c r="B338" t="str">
-        <v>299.00</v>
-      </c>
-      <c r="C338" t="str">
-        <v>$30.34</v>
-      </c>
-      <c r="D338" t="str">
-        <v>https://m.media-amazon.com/images/I/61Du2MurzOL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="str">
-        <v>HGWALP - Funda Universal para lectores electrónicos de 6 Pulgadas, Funda de Piel con Correa de Mano, Compatible con Todos los Libros de composición de</v>
-      </c>
-      <c r="B339" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C339" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D339" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="str">
-        <v>TOPOST Funda Compatible con Kindle Paperwhite 6.8 Pulgadas 11ª Generacion 2021 y Signature Edition All-New con Función Auto Sleep Wake (Negro)</v>
-      </c>
-      <c r="B340" t="str">
-        <v>229.00</v>
-      </c>
-      <c r="C340" t="str">
-        <v>$23.24</v>
-      </c>
-      <c r="D340" t="str">
-        <v>https://m.media-amazon.com/images/I/81bSwHXywXL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="str">
-        <v>enoxboo Funda de 6'' para Kindle de 11.ª generación, Lanzamiento en 2022/2024, Modelo: RS23CV o C2V2L3, Funda con Correa para la Mano y Función de Encendido y Apagado Automático</v>
-      </c>
-      <c r="B341" t="str">
-        <v>319.00</v>
-      </c>
-      <c r="C341" t="str">
-        <v>$413.09</v>
-      </c>
-      <c r="D341" t="str">
-        <v>https://m.media-amazon.com/images/I/81CCOCJN3XL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="str">
-        <v>Dadanism - Funda acolchada de 6 a 7 pulgadas para Kindle Colorsoft Signature Edition y Kindle Paperwhite, funda protectora para transporte K-indle/K-indle Oasis/Kobo de 6 pulgadas, color frambuesa</v>
-      </c>
-      <c r="B342" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C342" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D342" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="str">
-        <v>Moguri 60 pegatinas de libro rosa para Kindle, pegatinas para Kindle, pegatinas aesthetic Kindle, regalos de libros para mujeres, niñas, amantes de los libros, regalos para adultos</v>
-      </c>
-      <c r="B343" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C343" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D343" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="str">
-        <v>QPHWHFQ Funda para Kindle Paperwhite 11th Generation 2021, Kindle Case para 11th de 6.8 Pulgadas, con la Función Auto Sleep Wake, Funda con Soporte Plegable, con Magnetismo(Cielo Estrellado)</v>
-      </c>
-      <c r="B344" t="str">
-        <v>299.90</v>
-      </c>
-      <c r="C344" t="str">
-        <v>$469.00</v>
-      </c>
-      <c r="D344" t="str">
-        <v>https://m.media-amazon.com/images/I/71XGTMoiYiL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="str">
-        <v>Funda para Kindle de 11ª generación de 6 pulgadas, funda protectora de gel TPU de ajuste delgado para Kindle 2022 (rosa)</v>
-      </c>
-      <c r="B345" t="str">
-        <v>299.00</v>
-      </c>
-      <c r="C345" t="str">
-        <v>$30.34</v>
-      </c>
-      <c r="D345" t="str">
-        <v>https://m.media-amazon.com/images/I/51Uf-8dUUoL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="str">
-        <v>Dadanism - Funda acolchada de 6 a 7 pulgadas para Kindle Colorsoft Signature Edition y Kindle Paperwhite, funda protectora de transporte para Kindle Kindle Oasis/Kobo de 6 pulgadas, color verde Matcha</v>
-      </c>
-      <c r="B346" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C346" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D346" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="str">
-        <v>Chineestyle Funda de diamante para Kindle Oasis 3/2 (2019/2017), no amarillea, protección militar contra caídas pero no voluminosa, funda rígida delgada para Kindle Oasis de 3 generación 2019</v>
-      </c>
-      <c r="B347" t="str">
-        <v>299.00</v>
-      </c>
-      <c r="C347" t="str">
-        <v>$30.34</v>
-      </c>
-      <c r="D347" t="str">
-        <v>https://m.media-amazon.com/images/I/414k8Sig57L._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="str">
-        <v>LISEN Soporte para Tablet 360° Metálico Base para iPad Stand de Escritoric Ajustable Soporte para Celular and Kindle, Compatible con iPhone/iPad-Mini Pro Air/Gataxy Tab/Lenovo Tab/Kindle Accesorios</v>
-      </c>
-      <c r="B348" t="str">
-        <v>329.00</v>
-      </c>
-      <c r="C348" t="str">
-        <v>$499.00</v>
-      </c>
-      <c r="D348" t="str">
-        <v>https://m.media-amazon.com/images/I/81yppBGNuvL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="str">
-        <v>El Evangelio Perdido del Vaticano: María Magdalena, el hijo oculto y la verdad que el Papa jamás admitiría</v>
-      </c>
-      <c r="B349" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C349" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D349" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="str">
-        <v>enoxboo Funda para Kindle Paperwhite y Kindle Colorsoft Signature Edition 2024 - Funda de PU Ligera y Delgada con Función de Suspensión/Activación Automática, 7 Pulgadas</v>
-      </c>
-      <c r="B350" t="str">
-        <v>329.00</v>
-      </c>
-      <c r="C350" t="str">
-        <v>$458.98</v>
-      </c>
-      <c r="D350" t="str">
-        <v>https://m.media-amazon.com/images/I/51iR148vFEL._AC_UL320_.jpg</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="str">
-        <v>Volteador de página con control remoto RF para Kindle Paperwhite, visualización de alimentación, volteador de página remoto para teléfono, iPad, iOS, Android, tabletas, lectura, novelas, tomar, rosa</v>
-      </c>
-      <c r="B351" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C351" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D351" t="str">
-        <v>No disponible</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="str">
-        <v>Anillo de Control Remoto con aplicación Kindle, Cambio de página, Anillo igente, Libro electrónico, Novela, Cambio de página, Voz, Anillo igente portátil Negro N.º 11-73 mm</v>
-      </c>
-      <c r="B352" t="str">
-        <v>461.39</v>
-      </c>
-      <c r="C352" t="str">
-        <v>$46.83</v>
-      </c>
-      <c r="D352" t="str">
-        <v>https://m.media-amazon.com/images/I/515qLt4WH3L._AC_UL320_.jpg</v>
+        <v>https://m.media-amazon.com/images/I/615wKAL-RjL._AC_UL320_.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D352"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D257"/>
   </ignoredErrors>
 </worksheet>
 </file>